--- a/data/hotels_by_city/Houston/Houston_shard_69.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_69.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="335">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1733514-Reviews-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Candlewood-Suites-Houston-IAH-Beltway-8.h2461154.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,897 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r599735615-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1733514</t>
+  </si>
+  <si>
+    <t>599735615</t>
+  </si>
+  <si>
+    <t>07/25/2018</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>We came to this hotel in the middle of the night and Derick at the front desk had us in a room in minutes. He was incredibly kind to us. The parking lot is super secure because they have security. The cleaning crew is polite and professional. The supervisor is also very nice. Our room is very big and clean. It has a kitchen with a stove and microwave. The bathroom seems like it’s brand new. We will stay here every time we come to Houston now. The customer service is excellent and everything else exceeds my expectations for such a low price! :)</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r596687313-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>596687313</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>Needed a place to stay for early flight out of IAH.</t>
+  </si>
+  <si>
+    <t>We stayed here in order to catch a very early flight. Very clean room and had a nice little kitchenette. No complaints and would stay again.Parking lot was safe and security was in clear view every time we went outside to our car.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>We stayed here in order to catch a very early flight. Very clean room and had a nice little kitchenette. No complaints and would stay again.Parking lot was safe and security was in clear view every time we went outside to our car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r591020277-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591020277</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Always a great stay!</t>
+  </si>
+  <si>
+    <t>When my husband and I are in town, this is our home away from home! Always quick and easy check in with Ms Sharon &amp; Crystal! These two will do their best to meet all your needsRoom was clean, as usual...Pool, grill and great customer srevice Walmart and other stores are located not too far and all rooms have a stove top and full size refridgerator..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r579419509-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579419509</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t>Not living up to agreement Updated</t>
+  </si>
+  <si>
+    <t>(I removed the original post, so I could update the rating and the review.)
+(Original) The staff here is very polite and responsive. The rooms are well maintained, and the grounds are well groomed. It is next to the highway and airport, so there is the expected noise.
+Here is the rub. I have been in the hotel since 3/18 and today is 4/12. The rooms are to be cleaned weekly. I do not have a DND on the door. Every week I have had to ask at the end of the week when my room will be cleaned. One week it was not cleaned. I get different "reasons" as to why it was not cleaned from not enough staff for the number of checkouts, to people calling out. One week I could understand, but not every week.
+I have spoken to the property manager in person, with no results. In fact, he never said anything, it was the front desk person and housekeeper standing there who did all the talking. 
+Today I called the area manager and left a message. I called IHG customer service and spoke with a very nice gentleman who is following up.
+This property would get a much higher rating if they would live up to the agreement for lodging. 
+I will update this as this unfolds.
+Here is the update. 
+Since the original post, it has gotten worse.  NOT ONCE has the room been...(I removed the original post, so I could update the rating and the review.)(Original) The staff here is very polite and responsive. The rooms are well maintained, and the grounds are well groomed. It is next to the highway and airport, so there is the expected noise.Here is the rub. I have been in the hotel since 3/18 and today is 4/12. The rooms are to be cleaned weekly. I do not have a DND on the door. Every week I have had to ask at the end of the week when my room will be cleaned. One week it was not cleaned. I get different "reasons" as to why it was not cleaned from not enough staff for the number of checkouts, to people calling out. One week I could understand, but not every week.I have spoken to the property manager in person, with no results. In fact, he never said anything, it was the front desk person and housekeeper standing there who did all the talking. Today I called the area manager and left a message. I called IHG customer service and spoke with a very nice gentleman who is following up.This property would get a much higher rating if they would live up to the agreement for lodging. I will update this as this unfolds.Here is the update. Since the original post, it has gotten worse.  NOT ONCE has the room been completely clean or cleaned on time. The next cleaning did get a little better, but not as it should be.  The floor was not vacuumed, the bathroom was not cleaned well, and dirty towels were left in the kitchen area.It has gone downhill from there.  The next week the room was not cleaned, and I had to get them to send someone to clean it, which was only half done.The following week, they did not change the sheets, did not leave all the towels, nor did the clean the floors.  When they did change the sheets, I think they found the oldest set in the building which should have been discarded.Next cleaning, they did not leave all the towels, did not vacuum, did not clean the counters.This week, and the last, the sheets are clean, dirty towels were left in the bathroom, the floors are not clean, the bathroom and counters were not cleaned.If my job had afforded me the time, I would have changed hotels before now.  I am changing hotels this week.If you do not mind the sounds of an six-lane interstate plus four lanes of access road just a few yards from the hotel, jets from IAH airport taking off and landing, dirty rooms, dirty sheets and towels, or senior management that does not know how to apologize or get their staff to perform their basic job function, this is a place for to you stay.  It is beautiful on the outside and dirty on the inside.  I understand the manager has been here for two months, which is plenty of time to fix these issues.  If he can get the inside as well cared for as the outside it will be a nice, but noisy, place to stay.  He can’t do anything about the noise.  As for me, I will not stay here again should work carry me back to Houston.I have been here for 2 months.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded May 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2018</t>
+  </si>
+  <si>
+    <t>(I removed the original post, so I could update the rating and the review.)
+(Original) The staff here is very polite and responsive. The rooms are well maintained, and the grounds are well groomed. It is next to the highway and airport, so there is the expected noise.
+Here is the rub. I have been in the hotel since 3/18 and today is 4/12. The rooms are to be cleaned weekly. I do not have a DND on the door. Every week I have had to ask at the end of the week when my room will be cleaned. One week it was not cleaned. I get different "reasons" as to why it was not cleaned from not enough staff for the number of checkouts, to people calling out. One week I could understand, but not every week.
+I have spoken to the property manager in person, with no results. In fact, he never said anything, it was the front desk person and housekeeper standing there who did all the talking. 
+Today I called the area manager and left a message. I called IHG customer service and spoke with a very nice gentleman who is following up.
+This property would get a much higher rating if they would live up to the agreement for lodging. 
+I will update this as this unfolds.
+Here is the update. 
+Since the original post, it has gotten worse.  NOT ONCE has the room been...(I removed the original post, so I could update the rating and the review.)(Original) The staff here is very polite and responsive. The rooms are well maintained, and the grounds are well groomed. It is next to the highway and airport, so there is the expected noise.Here is the rub. I have been in the hotel since 3/18 and today is 4/12. The rooms are to be cleaned weekly. I do not have a DND on the door. Every week I have had to ask at the end of the week when my room will be cleaned. One week it was not cleaned. I get different "reasons" as to why it was not cleaned from not enough staff for the number of checkouts, to people calling out. One week I could understand, but not every week.I have spoken to the property manager in person, with no results. In fact, he never said anything, it was the front desk person and housekeeper standing there who did all the talking. Today I called the area manager and left a message. I called IHG customer service and spoke with a very nice gentleman who is following up.This property would get a much higher rating if they would live up to the agreement for lodging. I will update this as this unfolds.Here is the update. Since the original post, it has gotten worse.  NOT ONCE has the room been completely clean or cleaned on time. The next cleaning did get a little better, but not as it should be.  The floor was not vacuumed, the bathroom was not cleaned well, and dirty towels were left in the kitchen area.It has gone downhill from there.  The next week the room was not cleaned, and I had to get them to send someone to clean it, which was only half done.The following week, they did not change the sheets, did not leave all the towels, nor did the clean the floors.  When they did change the sheets, I think they found the oldest set in the building which should have been discarded.Next cleaning, they did not leave all the towels, did not vacuum, did not clean the counters.This week, and the last, the sheets are clean, dirty towels were left in the bathroom, the floors are not clean, the bathroom and counters were not cleaned.If my job had afforded me the time, I would have changed hotels before now.  I am changing hotels this week.If you do not mind the sounds of an six-lane interstate plus four lanes of access road just a few yards from the hotel, jets from IAH airport taking off and landing, dirty rooms, dirty sheets and towels, or senior management that does not know how to apologize or get their staff to perform their basic job function, this is a place for to you stay.  It is beautiful on the outside and dirty on the inside.  I understand the manager has been here for two months, which is plenty of time to fix these issues.  If he can get the inside as well cared for as the outside it will be a nice, but noisy, place to stay.  He can’t do anything about the noise.  As for me, I will not stay here again should work carry me back to Houston.I have been here for 2 months.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r560245304-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>560245304</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>Spectacular Beds!</t>
+  </si>
+  <si>
+    <t>Booked this hotel on Expedia because of the good rate and being close to the airport.  The room was very clean and large.  But hands down the mattresses on the beds were AMAZING!  I even checked the mattress to see the brand, because it's better than what I have at home.  The front desk clerk told me that they had just replaced all of the mattresses, so to that I say "good Job".  I had a great nights rest after a long day of traveling.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r557798752-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557798752</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>If you need to use wifi go elsewhere</t>
+  </si>
+  <si>
+    <t>We visit Houston a lot on business. While my husband attends meetings I do my business on my laptop. As we are spire elite we usually have a  decent room. But not this time. The room is so small tbe bed is jammed up against the wall and is not accessible from both sides. So very awkward. The very nice maintenance guy spent all morning trying to fix the ac unit no luck. Had to pack everything up and move...yes to another postage stamp room. Also. No internet access. I have so far lost a whole day of work as i cannot access the hotel wifi. Dissapointed in more ways than one.  MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded February 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2018</t>
+  </si>
+  <si>
+    <t>We visit Houston a lot on business. While my husband attends meetings I do my business on my laptop. As we are spire elite we usually have a  decent room. But not this time. The room is so small tbe bed is jammed up against the wall and is not accessible from both sides. So very awkward. The very nice maintenance guy spent all morning trying to fix the ac unit no luck. Had to pack everything up and move...yes to another postage stamp room. Also. No internet access. I have so far lost a whole day of work as i cannot access the hotel wifi. Dissapointed in more ways than one.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r472584926-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472584926</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>A hotel with the "I don't care" staff</t>
+  </si>
+  <si>
+    <t>I am very disappointed with this hotel as the staff don't care at all about the guests. I requested at 3:30 AM wake up call. Never happened. Thank God for my iPhone. Got down there and asked whatever happened to the wake up call, answer was "it wasn't scheduled" no apologies. And it turned out that their shuttle to the airport was not on demand as I had been told but had fixed times. Shuttle arrived and driver did not even bother to pick up my bag.Never again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded April 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2017</t>
+  </si>
+  <si>
+    <t>I am very disappointed with this hotel as the staff don't care at all about the guests. I requested at 3:30 AM wake up call. Never happened. Thank God for my iPhone. Got down there and asked whatever happened to the wake up call, answer was "it wasn't scheduled" no apologies. And it turned out that their shuttle to the airport was not on demand as I had been told but had fixed times. Shuttle arrived and driver did not even bother to pick up my bag.Never again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r471770826-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471770826</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>Great New Staff, Very Nice Room for the Price</t>
+  </si>
+  <si>
+    <t>I travel with my husband often.  We stayed here last year and I can say the hotel has done a complete 180 service wise.  We checked in with the most hospitable front desk receptionist who was very kind.  Linens were fresh and room was spotless.  Definitely a great deal!</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r454626741-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>454626741</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>New management has made it much better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huge difference from a six months ago. Parking lot lighting restored. Clean all around. Rooms well maintained. The staff is very personable, professional  and courteous. Lots of great changes. The manager was dealing with a guest who did not know how her payment card works. He was super professional and calm while she was being obnoxious. I wish I was as patient as him. Our crew will be staying here from now on. Our training center and yard is within their shuttle range. Great value and better service than before. </t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r425719993-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425719993</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t>Good choice cheapskate</t>
+  </si>
+  <si>
+    <t>I'm always concerned booking one of the cheapest choices, but this one gives some good bang for your buck. I arrived at IAH around 11pm, called them from terminal c and the free shuttle was the in around 10min. Super friendly driver even offered to stop so I could grab a bite. Ride back to the hotel was only around 10 to 15 minutes. Check in was a little slow, just because there were a couple of people checking in in front of me and only one desk clerk on at 11 pm. They offered a selection of rooms and floors at checkin and honored the price from their own Web site. It's kind of like camp or something, they have all kinds of stuff to borrow from games to blenders. I went to my room 140 on the main floor. It was fine, clean and tidy with lots of towels a desk a TV and even a well stocked kitchen. Yes I would go again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I'm always concerned booking one of the cheapest choices, but this one gives some good bang for your buck. I arrived at IAH around 11pm, called them from terminal c and the free shuttle was the in around 10min. Super friendly driver even offered to stop so I could grab a bite. Ride back to the hotel was only around 10 to 15 minutes. Check in was a little slow, just because there were a couple of people checking in in front of me and only one desk clerk on at 11 pm. They offered a selection of rooms and floors at checkin and honored the price from their own Web site. It's kind of like camp or something, they have all kinds of stuff to borrow from games to blenders. I went to my room 140 on the main floor. It was fine, clean and tidy with lots of towels a desk a TV and even a well stocked kitchen. Yes I would go again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r425188568-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425188568</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>NASTY</t>
+  </si>
+  <si>
+    <t>The carpet was filthy, ants in the bathtub and around the toilet, brown stains in toilet and hair around toilet. Towels in bathroom looked used, the next day I ask for fresh towels and they were hard and did not look clean. Ask for cleaning products to clean our room, had to wait on housekeeping the next day, ask housekeeping and they sent me back to the front desk. The room had a foul odor, I cleaned our room with dishwashing soap, when I ask for another one I was told they were out. You maybe asking yourself why did we stay, checked in early morning and had a funeral to attend  about 4 hours after check-in. I will never, ever visit this Candlewood Suites location again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded October 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2016</t>
+  </si>
+  <si>
+    <t>The carpet was filthy, ants in the bathtub and around the toilet, brown stains in toilet and hair around toilet. Towels in bathroom looked used, the next day I ask for fresh towels and they were hard and did not look clean. Ask for cleaning products to clean our room, had to wait on housekeeping the next day, ask housekeeping and they sent me back to the front desk. The room had a foul odor, I cleaned our room with dishwashing soap, when I ask for another one I was told they were out. You maybe asking yourself why did we stay, checked in early morning and had a funeral to attend  about 4 hours after check-in. I will never, ever visit this Candlewood Suites location again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r392694958-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>392694958</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Easy access to the Beltway</t>
+  </si>
+  <si>
+    <t>This hotel in on the Beltway, It is very handy if you need to access the industrial area along Aldine Bender Rd, or even to the Airport just up the road. The room has a kitchenette and enough room to spread out. The staff is friendly, the rooms are clean. i don't like the idea of having to request linens at the front desk, but I guess it is a trade off for the larger room vs a higher per night rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded August 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2016</t>
+  </si>
+  <si>
+    <t>This hotel in on the Beltway, It is very handy if you need to access the industrial area along Aldine Bender Rd, or even to the Airport just up the road. The room has a kitchenette and enough room to spread out. The staff is friendly, the rooms are clean. i don't like the idea of having to request linens at the front desk, but I guess it is a trade off for the larger room vs a higher per night rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r383405268-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383405268</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>Do not book here</t>
+  </si>
+  <si>
+    <t>This is the worst hotel I have ever stayed in. Starting by the door of my room being opened. Under the bed was a child's pacifier and tippy cup. Then there was dried blood on the curtains and stained sheets. Garbage piled about 12 inches at the end of the hall way.  After staying here I developed a rash. (Bedbugs I'm assuming) I couldn't book another room because everything was booked in town. Please DO NOT stay here. Did I add the shuttle only comes to the ap if you call them they talk on their cell phone while driving you...MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Public Relations Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded July 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2016</t>
+  </si>
+  <si>
+    <t>This is the worst hotel I have ever stayed in. Starting by the door of my room being opened. Under the bed was a child's pacifier and tippy cup. Then there was dried blood on the curtains and stained sheets. Garbage piled about 12 inches at the end of the hall way.  After staying here I developed a rash. (Bedbugs I'm assuming) I couldn't book another room because everything was booked in town. Please DO NOT stay here. Did I add the shuttle only comes to the ap if you call them they talk on their cell phone while driving you...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r380912050-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380912050</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>Not up to standards</t>
+  </si>
+  <si>
+    <t>I have stayed at other Candlewood Suites hotels and this one doesn't measure up. The room is nice, the bed is comfortable and the staff is nice (except one).  My issue has to do with the maintenance and garbage collection. This hotel has a large number of families living there, apparently displaced by the flood.  You therefore have a number of rooms being occupied by 3 or 4 people, including children. Lots of garbage generated and two very small garbage cans on the floor to deposit extra garbage that won't fit into the rather small garbage cans in the rooms.  Each morning you wake up to many bags of garbage laying beside the garbage cans in the halls. We are supposed to have free laundry services, however there are a total of 2 washers for 110 or so rooms.  On the week-ends, you might well wait for a long time for one to open up. The coffee machine has been broken for multiple weeks.  If you would like to use the pool, be prepared to share it with 15 - 20 kids. The kids are ok, however they are kids and this hotel wasn't really built with the idea of housing families.  Small things, however when they all are put together, they are just a bit much.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sharlene O, General Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded June 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2016</t>
+  </si>
+  <si>
+    <t>I have stayed at other Candlewood Suites hotels and this one doesn't measure up. The room is nice, the bed is comfortable and the staff is nice (except one).  My issue has to do with the maintenance and garbage collection. This hotel has a large number of families living there, apparently displaced by the flood.  You therefore have a number of rooms being occupied by 3 or 4 people, including children. Lots of garbage generated and two very small garbage cans on the floor to deposit extra garbage that won't fit into the rather small garbage cans in the rooms.  Each morning you wake up to many bags of garbage laying beside the garbage cans in the halls. We are supposed to have free laundry services, however there are a total of 2 washers for 110 or so rooms.  On the week-ends, you might well wait for a long time for one to open up. The coffee machine has been broken for multiple weeks.  If you would like to use the pool, be prepared to share it with 15 - 20 kids. The kids are ok, however they are kids and this hotel wasn't really built with the idea of housing families.  Small things, however when they all are put together, they are just a bit much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r374673172-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374673172</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Clean and Close to Sonic</t>
+  </si>
+  <si>
+    <t>We flew in late to Houston and didn't want to spend a fortune on a room so I booked one here. The room was clean. The people were friendly and it was a great value. I didn't need all of the suite amenities I sure wasn't using the kitchen during my stay, but I got to sleep in and in the morning Sonic was right down the street with some chewy ice...I can't help it really, I'm anemic I love that ice!  Anyway the room was well on the smaller side if we had been staying for a long period of time but we weren't. Bathroom had everything we needed. I would consider staying again but the staybridge is half a block away and we stayed there right before our flight home and I liked it a little more.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Sharlene O, General Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded May 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2016</t>
+  </si>
+  <si>
+    <t>We flew in late to Houston and didn't want to spend a fortune on a room so I booked one here. The room was clean. The people were friendly and it was a great value. I didn't need all of the suite amenities I sure wasn't using the kitchen during my stay, but I got to sleep in and in the morning Sonic was right down the street with some chewy ice...I can't help it really, I'm anemic I love that ice!  Anyway the room was well on the smaller side if we had been staying for a long period of time but we weren't. Bathroom had everything we needed. I would consider staying again but the staybridge is half a block away and we stayed there right before our flight home and I liked it a little more.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r340638271-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340638271</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>Close to airport</t>
+  </si>
+  <si>
+    <t>It's 10 minutes from airport and they have a shuttle that picks you up at the terminal. You just have to call the hotel.Stayed on the 2nd floor and it's noisy. You could hear the cars from the freeway and also people walking from the 3rd floor.Besides that it's an OK place for a night between connecting flights.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded February 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2016</t>
+  </si>
+  <si>
+    <t>It's 10 minutes from airport and they have a shuttle that picks you up at the terminal. You just have to call the hotel.Stayed on the 2nd floor and it's noisy. You could hear the cars from the freeway and also people walking from the 3rd floor.Besides that it's an OK place for a night between connecting flights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r288048692-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>288048692</t>
+  </si>
+  <si>
+    <t>07/11/2015</t>
+  </si>
+  <si>
+    <t>A little disappointed...</t>
+  </si>
+  <si>
+    <t>I had called the hotel a few times to confirm how the shuttle bus works and room assignment.  Each time, Dominic answered the phone and I thought this would be a great hotel (service-wise) because of his great phone manners.  When I checked in (around midnight), the guy at the front desk was sloppily dressed and seemed tired and half awake.  The room is the standard Candlewood rooom.  The smell is not so great but this is not uncommon in these type of hotels that have kitchen.The shuttle bus drivers to/from the airport were both very friendly and helpful.  That made up for the not so helpful front desk check-in guy.  The IAH shuttle is 24 hours!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Kerri A, Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded July 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2015</t>
+  </si>
+  <si>
+    <t>I had called the hotel a few times to confirm how the shuttle bus works and room assignment.  Each time, Dominic answered the phone and I thought this would be a great hotel (service-wise) because of his great phone manners.  When I checked in (around midnight), the guy at the front desk was sloppily dressed and seemed tired and half awake.  The room is the standard Candlewood rooom.  The smell is not so great but this is not uncommon in these type of hotels that have kitchen.The shuttle bus drivers to/from the airport were both very friendly and helpful.  That made up for the not so helpful front desk check-in guy.  The IAH shuttle is 24 hours!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r269080426-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>269080426</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>Disapointing</t>
+  </si>
+  <si>
+    <t>This Hotel is small and in a isolated area which is not easily accessed. It was clean but that is all I can say positive about it. Upon check in all I was asked was if I wanted the points or a bottle of water, no recognition for being a Platinum Elite member. Apparently the clerk paid no attention to my reservation request be cause I requested a top floor with 2 beds. After we were assigned our room (on the first floor) I opened the door and it had 1 queen bed. Turned right around and told the clerk my reservation was for 2 beds, not 1 preferably on the top floor. He offered no explanation nor apology and reassigned us to another room on the bottom floor again.  This was no big problem but it did agitate me which I did not appreciate. The room was clean, but the furnishings and the old curtains and drapes with holes in them and the staff attitude along with the location just made me decide to never stay in this Candlewood Suites property again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Kerri A, Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded May 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2015</t>
+  </si>
+  <si>
+    <t>This Hotel is small and in a isolated area which is not easily accessed. It was clean but that is all I can say positive about it. Upon check in all I was asked was if I wanted the points or a bottle of water, no recognition for being a Platinum Elite member. Apparently the clerk paid no attention to my reservation request be cause I requested a top floor with 2 beds. After we were assigned our room (on the first floor) I opened the door and it had 1 queen bed. Turned right around and told the clerk my reservation was for 2 beds, not 1 preferably on the top floor. He offered no explanation nor apology and reassigned us to another room on the bottom floor again.  This was no big problem but it did agitate me which I did not appreciate. The room was clean, but the furnishings and the old curtains and drapes with holes in them and the staff attitude along with the location just made me decide to never stay in this Candlewood Suites property again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r238301000-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>238301000</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>Isolated but good property</t>
+  </si>
+  <si>
+    <t>Located 10 mins drive from the airport, isolated,you need to call hotel from the airport for complimentary shuttle but even after calling from the airport it took them nearly an hour to arrive and as a courtesy driver didn't even offer to help with the bags and didn't speak a word with us which is unusual for USA. There are few eatries near the hotel but you need a car to go around and a gas station inc Burger King 2 mins away but the walk is not v pleasant. The hotel is very clean, the room is large with 2 queen beds with a kitchenette and very clean bathroom with regular amenities and tea/coffee maker in the room as well as in the lobby. The hotel offers free ample parking space for the guests. The front desk staff is ok and check in efficient. The area seems isolated not the best I would say compared to Holiday Inn a Express where we decided to stay the next night.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded November 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2014</t>
+  </si>
+  <si>
+    <t>Located 10 mins drive from the airport, isolated,you need to call hotel from the airport for complimentary shuttle but even after calling from the airport it took them nearly an hour to arrive and as a courtesy driver didn't even offer to help with the bags and didn't speak a word with us which is unusual for USA. There are few eatries near the hotel but you need a car to go around and a gas station inc Burger King 2 mins away but the walk is not v pleasant. The hotel is very clean, the room is large with 2 queen beds with a kitchenette and very clean bathroom with regular amenities and tea/coffee maker in the room as well as in the lobby. The hotel offers free ample parking space for the guests. The front desk staff is ok and check in efficient. The area seems isolated not the best I would say compared to Holiday Inn a Express where we decided to stay the next night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r234761234-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234761234</t>
+  </si>
+  <si>
+    <t>10/16/2014</t>
+  </si>
+  <si>
+    <t>Unsafe</t>
+  </si>
+  <si>
+    <t>The key card access on the side door by the pool is broken. I've witnessed this door being left propped open with nobody around too many times to count. When I return from work it's propped open with nobody near it. When I leave for work in the morning it's propped open with nobody near it. One morning when I left for work I noticed a truck was left sitting on blocks with it's tires stolen. This causes me concern for my property and for my safety as well. I would not recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Kerri A, General Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded October 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2014</t>
+  </si>
+  <si>
+    <t>The key card access on the side door by the pool is broken. I've witnessed this door being left propped open with nobody around too many times to count. When I return from work it's propped open with nobody near it. When I leave for work in the morning it's propped open with nobody near it. One morning when I left for work I noticed a truck was left sitting on blocks with it's tires stolen. This causes me concern for my property and for my safety as well. I would not recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r217304655-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217304655</t>
+  </si>
+  <si>
+    <t>07/24/2014</t>
+  </si>
+  <si>
+    <t>Only good thing was leaving our car during our trip</t>
+  </si>
+  <si>
+    <t>I was so disappointed in my stay at Candlewood. We were looking at a hotel near the airport in which to leave our car while we flew out of IAH and were gone for 8 days. The leaving the car at the hotel was fine. However, the room, in my opinion was way overpriced. The shuttle to the airport was great. We left at 5:30 am and had no trouble. I wish I could say the same for our return. We waited at the airport--after two calls to the hotel-- for an hour and ended up taking a cab to go pick up our car. We will not be staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded August 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2014</t>
+  </si>
+  <si>
+    <t>I was so disappointed in my stay at Candlewood. We were looking at a hotel near the airport in which to leave our car while we flew out of IAH and were gone for 8 days. The leaving the car at the hotel was fine. However, the room, in my opinion was way overpriced. The shuttle to the airport was great. We left at 5:30 am and had no trouble. I wish I could say the same for our return. We waited at the airport--after two calls to the hotel-- for an hour and ended up taking a cab to go pick up our car. We will not be staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r209555953-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209555953</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>Value-priced hotel near IAH</t>
+  </si>
+  <si>
+    <t>The Candlewood Suites near Bush Intercontinental is suitable for both short- and long-term lodging.  The rooms are clean, quiet and well-appointed.  There's not much out here *near* the hotel, but that's not Candlewood's fault.But for those looking for a reasonably priced stay near the airport, it's a fine option.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r209024672-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209024672</t>
+  </si>
+  <si>
+    <t>06/05/2014</t>
+  </si>
+  <si>
+    <t>Helpful, Friendly Staff</t>
+  </si>
+  <si>
+    <t>This long-term hotel was very clean and had incredibly helpful and friendly staff. I did not choose it for its location to the airport as we were driving in. I was towing a trailer and they helped me with where I could park and hopefully not disturb other guests.  That worked well until the last night when someone parked right next to my truck making it somewhat difficult to get out. Don't know what management issues there were with this property but they weren't evident when I was there.  Room was clean, kitchen was stocked with utensils, plates, pots and pans, etc.  There were also good restaurants within walking distance as Houston traffic can be a nightmare no matter what part of the city you're in.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>This long-term hotel was very clean and had incredibly helpful and friendly staff. I did not choose it for its location to the airport as we were driving in. I was towing a trailer and they helped me with where I could park and hopefully not disturb other guests.  That worked well until the last night when someone parked right next to my truck making it somewhat difficult to get out. Don't know what management issues there were with this property but they weren't evident when I was there.  Room was clean, kitchen was stocked with utensils, plates, pots and pans, etc.  There were also good restaurants within walking distance as Houston traffic can be a nightmare no matter what part of the city you're in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r207283389-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207283389</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>Not bad hotel but location is just ok</t>
+  </si>
+  <si>
+    <t>It is 15 minutes away from the airport and that depends also on traffic.  The shuttles takes you within the five mikes radius of the airport which portable you might want to take advantage because there is nothing around to eat except for a Burger King which you have to walk to next to the highway and open fieldsFairly new construction as well with other smaller hotels next to each other.The staff is very friendly an the rooms have a full size fridge, two electric stove kitchen, some utensils, pits and pans. Microwave. Great for families and anyone looking to make their own meals.Bathroom is spacious and clean.  Not a fan of the one bottle of shampoo, conditioner combo but ok.  Where is the lotion?Comfortable bed, grab and go breakfast bag for early birds.  Thank you for the quiet night and friendly helloMoreShow less</t>
+  </si>
+  <si>
+    <t>It is 15 minutes away from the airport and that depends also on traffic.  The shuttles takes you within the five mikes radius of the airport which portable you might want to take advantage because there is nothing around to eat except for a Burger King which you have to walk to next to the highway and open fieldsFairly new construction as well with other smaller hotels next to each other.The staff is very friendly an the rooms have a full size fridge, two electric stove kitchen, some utensils, pits and pans. Microwave. Great for families and anyone looking to make their own meals.Bathroom is spacious and clean.  Not a fan of the one bottle of shampoo, conditioner combo but ok.  Where is the lotion?Comfortable bed, grab and go breakfast bag for early birds.  Thank you for the quiet night and friendly helloMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r184182199-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184182199</t>
+  </si>
+  <si>
+    <t>11/09/2013</t>
+  </si>
+  <si>
+    <t>Exceptional Service and Extreme Kindness Shown</t>
+  </si>
+  <si>
+    <t>In June 2013, I had the misfortune of falling in the Belize City Airport. This fall would later prove to be excruitatingly painful as I had broken my patella into 4 pieces. After a very long 2 hour flight into Houston, I was greeted by the first outstanding employee of the hotel. The shuttle driver assisted me as I attempted to get into the hotel van. His genuine concern and calm demeanor helped my husband and I relax a bit. Upon arrival at the hotel, he pleaded with the desk manager to allow him to take me to the nearest emergency room as I had not yet received medical attention for my knee. The hotel manager came out to the van to speak with my husband and me, and then assured us that although hotel policy did not allow this type of transport, he would do his best to convince the corporate office that I was in dire need of medical attention. Corporate agreed and off we went to the nearest hospital. The driver explained to us that he would be off duty when our visit was over. He took it upon himself to "brief" the next shuttle driver, who also was outstandingly nice and very helpful in assisting me back to the hotel. In the hotel, I received grand treatment in getting to the room. The facilities were beautiful...room was sqeaky clean, and the bed was an absolute life-saver...In June 2013, I had the misfortune of falling in the Belize City Airport. This fall would later prove to be excruitatingly painful as I had broken my patella into 4 pieces. After a very long 2 hour flight into Houston, I was greeted by the first outstanding employee of the hotel. The shuttle driver assisted me as I attempted to get into the hotel van. His genuine concern and calm demeanor helped my husband and I relax a bit. Upon arrival at the hotel, he pleaded with the desk manager to allow him to take me to the nearest emergency room as I had not yet received medical attention for my knee. The hotel manager came out to the van to speak with my husband and me, and then assured us that although hotel policy did not allow this type of transport, he would do his best to convince the corporate office that I was in dire need of medical attention. Corporate agreed and off we went to the nearest hospital. The driver explained to us that he would be off duty when our visit was over. He took it upon himself to "brief" the next shuttle driver, who also was outstandingly nice and very helpful in assisting me back to the hotel. In the hotel, I received grand treatment in getting to the room. The facilities were beautiful...room was sqeaky clean, and the bed was an absolute life-saver after my day-long ordeal. Even as we left the following day, every employee in the hotel went out of their way to treat me with extreme care and kindness. I will never forget how I was treated at the hotel by every employee I encountered...the nice room was just and added bonus! It's been four months since my stay at Candlewood Suites, but I still feel "warm and fuzzy" when I think about how I was treated by such outstanding employees!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>In June 2013, I had the misfortune of falling in the Belize City Airport. This fall would later prove to be excruitatingly painful as I had broken my patella into 4 pieces. After a very long 2 hour flight into Houston, I was greeted by the first outstanding employee of the hotel. The shuttle driver assisted me as I attempted to get into the hotel van. His genuine concern and calm demeanor helped my husband and I relax a bit. Upon arrival at the hotel, he pleaded with the desk manager to allow him to take me to the nearest emergency room as I had not yet received medical attention for my knee. The hotel manager came out to the van to speak with my husband and me, and then assured us that although hotel policy did not allow this type of transport, he would do his best to convince the corporate office that I was in dire need of medical attention. Corporate agreed and off we went to the nearest hospital. The driver explained to us that he would be off duty when our visit was over. He took it upon himself to "brief" the next shuttle driver, who also was outstandingly nice and very helpful in assisting me back to the hotel. In the hotel, I received grand treatment in getting to the room. The facilities were beautiful...room was sqeaky clean, and the bed was an absolute life-saver...In June 2013, I had the misfortune of falling in the Belize City Airport. This fall would later prove to be excruitatingly painful as I had broken my patella into 4 pieces. After a very long 2 hour flight into Houston, I was greeted by the first outstanding employee of the hotel. The shuttle driver assisted me as I attempted to get into the hotel van. His genuine concern and calm demeanor helped my husband and I relax a bit. Upon arrival at the hotel, he pleaded with the desk manager to allow him to take me to the nearest emergency room as I had not yet received medical attention for my knee. The hotel manager came out to the van to speak with my husband and me, and then assured us that although hotel policy did not allow this type of transport, he would do his best to convince the corporate office that I was in dire need of medical attention. Corporate agreed and off we went to the nearest hospital. The driver explained to us that he would be off duty when our visit was over. He took it upon himself to "brief" the next shuttle driver, who also was outstandingly nice and very helpful in assisting me back to the hotel. In the hotel, I received grand treatment in getting to the room. The facilities were beautiful...room was sqeaky clean, and the bed was an absolute life-saver after my day-long ordeal. Even as we left the following day, every employee in the hotel went out of their way to treat me with extreme care and kindness. I will never forget how I was treated at the hotel by every employee I encountered...the nice room was just and added bonus! It's been four months since my stay at Candlewood Suites, but I still feel "warm and fuzzy" when I think about how I was treated by such outstanding employees!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r183312035-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183312035</t>
+  </si>
+  <si>
+    <t>11/02/2013</t>
+  </si>
+  <si>
+    <t>Hotel is nice, but not great location</t>
+  </si>
+  <si>
+    <t>Would have given the hotel a 5, but the location knocked it down a notch.  Directions via google, garmin, and hotel were all incorrect, so it was a bit of challenge getting there the first night.  Once we were able to see the area in the light of day it was a breeze getting in and out.  It's a decent drive away from downtown, museum district, and galleria area, so be prepared for some driving if you are vacationing in Houston.  It is also strangely a good distance away from restaurants.  We found a Chili's about 5 miles down the road, but dined the rest of our trip closer to downtown.  I imagine if you are flying in for business it is a very good option.  For the hotel itself, the experience was very positive.  The room was very clean and staff friendly.  The free laundry is always a plus at any Candlewood although there is the typical inconsiderate guest who leaves their stuff in the washer or dryer too long.  We stayed on points, so I don't have a comment on the value of the hotel.  It was a bit cool while we were there, so we didn't use the pool either.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Would have given the hotel a 5, but the location knocked it down a notch.  Directions via google, garmin, and hotel were all incorrect, so it was a bit of challenge getting there the first night.  Once we were able to see the area in the light of day it was a breeze getting in and out.  It's a decent drive away from downtown, museum district, and galleria area, so be prepared for some driving if you are vacationing in Houston.  It is also strangely a good distance away from restaurants.  We found a Chili's about 5 miles down the road, but dined the rest of our trip closer to downtown.  I imagine if you are flying in for business it is a very good option.  For the hotel itself, the experience was very positive.  The room was very clean and staff friendly.  The free laundry is always a plus at any Candlewood although there is the typical inconsiderate guest who leaves their stuff in the washer or dryer too long.  We stayed on points, so I don't have a comment on the value of the hotel.  It was a bit cool while we were there, so we didn't use the pool either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r176209389-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>176209389</t>
+  </si>
+  <si>
+    <t>09/07/2013</t>
+  </si>
+  <si>
+    <t>Very friendly hotel with nice pool.</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel for leisure between flights for one night. I mostly enjoyed the pool which was clean and functional. There are no restaurants at this hotel however if you are driving ( I wasn't at the time) - there are a number of restaurants a few minutes drive away. I had to do with a Burger King and some beers bought from gas station, which is 5 minutes walk from the hotel.If I planned a longer trip in Houston, I would definitely have stayed at this hotel comfortably for 10+ nights without being too bored.... The shuttle. You have to ring hotel once you have arrived at the airport and advise where to pick you up .example, terminal xxx arrivals.... The shuttle is run every 30 minutes. Thanks to all the staff ate the hotel for my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Kerri A, General Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded September 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2013</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel for leisure between flights for one night. I mostly enjoyed the pool which was clean and functional. There are no restaurants at this hotel however if you are driving ( I wasn't at the time) - there are a number of restaurants a few minutes drive away. I had to do with a Burger King and some beers bought from gas station, which is 5 minutes walk from the hotel.If I planned a longer trip in Houston, I would definitely have stayed at this hotel comfortably for 10+ nights without being too bored.... The shuttle. You have to ring hotel once you have arrived at the airport and advise where to pick you up .example, terminal xxx arrivals.... The shuttle is run every 30 minutes. Thanks to all the staff ate the hotel for my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r170626762-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170626762</t>
+  </si>
+  <si>
+    <t>08/03/2013</t>
+  </si>
+  <si>
+    <t>Very Good for what you pay for</t>
+  </si>
+  <si>
+    <t>We have been here for 4 weeks now and we have been so pleased with this hotel and its staff. The only problem we had was we had ants in the bathroom but they had some ant spray at the office and that took care of the problem. The laundry is free which is really nice, the gym has just a few treadmills and a bike, no free weights. The rooms have a full size fridge and dishwasher which is very nice, they really provide everything you need for the kitchen. They also allow dogs which was a big plus for us.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r165126631-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165126631</t>
+  </si>
+  <si>
+    <t>06/24/2013</t>
+  </si>
+  <si>
+    <t>Exceptional Staff</t>
+  </si>
+  <si>
+    <t>I'm still in the midst of my visit here to Houston, but I really wanted to make sure I left a review before I went back home and it slipped my mind. The staff here at the Candlewood are exceptional, I had to say that. They're all super friendly and very helpful. I had an issue with my bathroom when I first arrived, and when I told the front desk about it, it was dealt with immediately. Not in half an hour, or even five minutes; the employee literally came upstairs with me to deal with it. I have seen quite a few faces behind the counter while I've been here, and they've all been kind, friendly, and generally awesome. 
+What else? The room is nice, the air conditioner is effective, the airport shuttle is great, and the little kitchen is a nice bonus and has been more than enough for my purposes. It's nice to not have to eat out every day. There was a very nice little surprise of a microwave popcorn package in the microwave. It was a great little welcome. :-) Yes, it is true that housekeeping does not come through daily... But honestly, I like it that way. It makes it more my space during an extended visit. And if new towels or linens are needed, those helpful staff are more than willing to grab some for you. I had a couple of minor issues:...I'm still in the midst of my visit here to Houston, but I really wanted to make sure I left a review before I went back home and it slipped my mind. The staff here at the Candlewood are exceptional, I had to say that. They're all super friendly and very helpful. I had an issue with my bathroom when I first arrived, and when I told the front desk about it, it was dealt with immediately. Not in half an hour, or even five minutes; the employee literally came upstairs with me to deal with it. I have seen quite a few faces behind the counter while I've been here, and they've all been kind, friendly, and generally awesome. What else? The room is nice, the air conditioner is effective, the airport shuttle is great, and the little kitchen is a nice bonus and has been more than enough for my purposes. It's nice to not have to eat out every day. There was a very nice little surprise of a microwave popcorn package in the microwave. It was a great little welcome. :-) Yes, it is true that housekeeping does not come through daily... But honestly, I like it that way. It makes it more my space during an extended visit. And if new towels or linens are needed, those helpful staff are more than willing to grab some for you. I had a couple of minor issues: mostly, my toilet was a little weird, which is what the clerk dealt with on the first day for me. All in all, I think this is a good hotel, and I've had a pleasant stay. (I can't comment, price-wise, on value though as my company paid for my visit.)MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm still in the midst of my visit here to Houston, but I really wanted to make sure I left a review before I went back home and it slipped my mind. The staff here at the Candlewood are exceptional, I had to say that. They're all super friendly and very helpful. I had an issue with my bathroom when I first arrived, and when I told the front desk about it, it was dealt with immediately. Not in half an hour, or even five minutes; the employee literally came upstairs with me to deal with it. I have seen quite a few faces behind the counter while I've been here, and they've all been kind, friendly, and generally awesome. 
+What else? The room is nice, the air conditioner is effective, the airport shuttle is great, and the little kitchen is a nice bonus and has been more than enough for my purposes. It's nice to not have to eat out every day. There was a very nice little surprise of a microwave popcorn package in the microwave. It was a great little welcome. :-) Yes, it is true that housekeeping does not come through daily... But honestly, I like it that way. It makes it more my space during an extended visit. And if new towels or linens are needed, those helpful staff are more than willing to grab some for you. I had a couple of minor issues:...I'm still in the midst of my visit here to Houston, but I really wanted to make sure I left a review before I went back home and it slipped my mind. The staff here at the Candlewood are exceptional, I had to say that. They're all super friendly and very helpful. I had an issue with my bathroom when I first arrived, and when I told the front desk about it, it was dealt with immediately. Not in half an hour, or even five minutes; the employee literally came upstairs with me to deal with it. I have seen quite a few faces behind the counter while I've been here, and they've all been kind, friendly, and generally awesome. What else? The room is nice, the air conditioner is effective, the airport shuttle is great, and the little kitchen is a nice bonus and has been more than enough for my purposes. It's nice to not have to eat out every day. There was a very nice little surprise of a microwave popcorn package in the microwave. It was a great little welcome. :-) Yes, it is true that housekeeping does not come through daily... But honestly, I like it that way. It makes it more my space during an extended visit. And if new towels or linens are needed, those helpful staff are more than willing to grab some for you. I had a couple of minor issues: mostly, my toilet was a little weird, which is what the clerk dealt with on the first day for me. All in all, I think this is a good hotel, and I've had a pleasant stay. (I can't comment, price-wise, on value though as my company paid for my visit.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r157128350-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157128350</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Clean and close to airport</t>
+  </si>
+  <si>
+    <t>There is no room cleaning everyday . Free wi fi. There is no breakfast at all. Rooms are fully equiped for long stay incl. kitchen.If you'd like to change towel you need to bring it to thereception and get another one. Rooms are clean and nice. No restaurants in the walking distance.Nice spot for grilling No lobby to sit and no conference room.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded April 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2013</t>
+  </si>
+  <si>
+    <t>There is no room cleaning everyday . Free wi fi. There is no breakfast at all. Rooms are fully equiped for long stay incl. kitchen.If you'd like to change towel you need to bring it to thereception and get another one. Rooms are clean and nice. No restaurants in the walking distance.Nice spot for grilling No lobby to sit and no conference room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r151077082-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151077082</t>
+  </si>
+  <si>
+    <t>01/31/2013</t>
+  </si>
+  <si>
+    <t>The good ,the bad and the ugly</t>
+  </si>
+  <si>
+    <t>1- The good - a-Guys at the reception/front desk are very very helpful!!! Outstanding service!!                       b-Good location if you want to stay close to the  Bush airport                       c-Rooms are in good and clean condition2- The bad - Houston is a huge city. Location is bad if you want to stay close to downtown or Nasa(70km) which is the almost the only thing that is worth seeing in Houston3- The ugly - Booking online accepted a family of 5 staying in one room. When we arrived ,the room had only 2 queen beds , so one of my sons had to sleep on the bedroom floor.On the 3rd night they we moved to a room with a King size bed and a sofa bed.Then ,at least ,everybody was able to sleep some inches from the floorMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>MsSuitePeach, VP, PMI Hotels INC at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded February 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2013</t>
+  </si>
+  <si>
+    <t>1- The good - a-Guys at the reception/front desk are very very helpful!!! Outstanding service!!                       b-Good location if you want to stay close to the  Bush airport                       c-Rooms are in good and clean condition2- The bad - Houston is a huge city. Location is bad if you want to stay close to downtown or Nasa(70km) which is the almost the only thing that is worth seeing in Houston3- The ugly - Booking online accepted a family of 5 staying in one room. When we arrived ,the room had only 2 queen beds , so one of my sons had to sleep on the bedroom floor.On the 3rd night they we moved to a room with a King size bed and a sofa bed.Then ,at least ,everybody was able to sleep some inches from the floorMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r151018238-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151018238</t>
+  </si>
+  <si>
+    <t>01/30/2013</t>
+  </si>
+  <si>
+    <t>Studio kitchen and secure parking with a security detail!</t>
+  </si>
+  <si>
+    <t>Room was the norm from staying at other candle wood properties.  There was a slight odor of previously used pesticide or similar.  Front desk staff was friendly.  Being close to the airport, airliner activity was noticeable!  MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded August 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2013</t>
+  </si>
+  <si>
+    <t>Room was the norm from staying at other candle wood properties.  There was a slight odor of previously used pesticide or similar.  Front desk staff was friendly.  Being close to the airport, airliner activity was noticeable!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r150405773-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150405773</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>Always a good stay!</t>
+  </si>
+  <si>
+    <t>As a Priority Club member, I make it a point to stay at the Candlewood near IAH when I'm in town on business. I enjoy the Manager's receptions and the Front Desk folks are ALWAYS super! Rooms are clean and just like every other Candlewood.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r134587396-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>134587396</t>
+  </si>
+  <si>
+    <t>07/16/2012</t>
+  </si>
+  <si>
+    <t>Great DIY stay</t>
+  </si>
+  <si>
+    <t>Really a full suite with everything you need to cater for yourself contained in your room. They run a small shop that's open 24 hours. Eat in, take out an delivery options available in the area, as well as groceries, so it's easy to manage everything yourself.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r125744772-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125744772</t>
+  </si>
+  <si>
+    <t>03/07/2012</t>
+  </si>
+  <si>
+    <t>Clean basic accomodation</t>
+  </si>
+  <si>
+    <t>Very convenient to IAH.  Basic motel, but clean and comfortable.  Bed was a little below par, but still fair sleep quality.  Location was a plus for me this trip.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r124680756-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>124680756</t>
+  </si>
+  <si>
+    <t>02/16/2012</t>
+  </si>
+  <si>
+    <t>Super Service. Great value stay near Bush Airport</t>
+  </si>
+  <si>
+    <t>The front desk guy was super-helpful. The free airport shuttle was timely. Typical Candlewood Studio Room was very clean. No problems. Great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>MsSuitePeach, VP Sales &amp; Marketing at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded February 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2012</t>
+  </si>
+  <si>
+    <t>The front desk guy was super-helpful. The free airport shuttle was timely. Typical Candlewood Studio Room was very clean. No problems. Great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r76491816-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>76491816</t>
+  </si>
+  <si>
+    <t>08/23/2010</t>
+  </si>
+  <si>
+    <t>Nice Budget Hotel</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights with 3 kids, ages 6, 4, and 4.  The room was large, attractively furnished, and had the kitchen and bath essentials, including fridge, microwave, and two burner cook top.  The beds were comfortable, though queens instead of doubles would have been better.  The pool was perfect with the kids, big enough to enjoy, but I could have reached them in 2 seconds from any spot around it.  It had a hot tub and an area with some bubbly fountains that they liked.There was a gas powered grill there, though we chose not to use it.The store there was stocked with things for any meal or snack, so you did not absolutely have to go out for food if you are okay with micorwave.  Prices were reasonable.There is also a Burger King a block away for a quick meal.This is close to the airport, but also on Beltway 8 for easy access for othr points in town.Staff were friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights with 3 kids, ages 6, 4, and 4.  The room was large, attractively furnished, and had the kitchen and bath essentials, including fridge, microwave, and two burner cook top.  The beds were comfortable, though queens instead of doubles would have been better.  The pool was perfect with the kids, big enough to enjoy, but I could have reached them in 2 seconds from any spot around it.  It had a hot tub and an area with some bubbly fountains that they liked.There was a gas powered grill there, though we chose not to use it.The store there was stocked with things for any meal or snack, so you did not absolutely have to go out for food if you are okay with micorwave.  Prices were reasonable.There is also a Burger King a block away for a quick meal.This is close to the airport, but also on Beltway 8 for easy access for othr points in town.Staff were friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r59008870-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>59008870</t>
+  </si>
+  <si>
+    <t>03/19/2010</t>
+  </si>
+  <si>
+    <t>Super hotel</t>
+  </si>
+  <si>
+    <t>Stayed overnight here for a flight out the next morning from airport. The room was very clean and spacious as well as any other Canclewood Suites we have stayed in. When unpacking our truck, the security guard came up to us and took down our license plate and assured us he was there all night guarding the parking area which made us feel good. I wold recommend this hotel again to others.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1432,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1464,2521 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>88</v>
+      </c>
+      <c r="X7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>118</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>126</v>
+      </c>
+      <c r="X12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>143</v>
+      </c>
+      <c r="X14" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>151</v>
+      </c>
+      <c r="X15" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>159</v>
+      </c>
+      <c r="X16" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" t="s">
+        <v>166</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>167</v>
+      </c>
+      <c r="O17" t="s">
+        <v>125</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>168</v>
+      </c>
+      <c r="X17" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" t="s">
+        <v>175</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>176</v>
+      </c>
+      <c r="O18" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>177</v>
+      </c>
+      <c r="X18" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s">
+        <v>184</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>185</v>
+      </c>
+      <c r="O19" t="s">
+        <v>125</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>186</v>
+      </c>
+      <c r="X19" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" t="s">
+        <v>193</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>194</v>
+      </c>
+      <c r="O20" t="s">
+        <v>125</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>195</v>
+      </c>
+      <c r="X20" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>199</v>
+      </c>
+      <c r="J21" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" t="s">
+        <v>202</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>203</v>
+      </c>
+      <c r="O21" t="s">
+        <v>87</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>204</v>
+      </c>
+      <c r="X21" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>208</v>
+      </c>
+      <c r="J22" t="s">
+        <v>209</v>
+      </c>
+      <c r="K22" t="s">
+        <v>210</v>
+      </c>
+      <c r="L22" t="s">
+        <v>211</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>212</v>
+      </c>
+      <c r="O22" t="s">
+        <v>125</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>213</v>
+      </c>
+      <c r="X22" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>217</v>
+      </c>
+      <c r="J23" t="s">
+        <v>218</v>
+      </c>
+      <c r="K23" t="s">
+        <v>219</v>
+      </c>
+      <c r="L23" t="s">
+        <v>220</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>221</v>
+      </c>
+      <c r="O23" t="s">
+        <v>87</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>223</v>
+      </c>
+      <c r="J24" t="s">
+        <v>224</v>
+      </c>
+      <c r="K24" t="s">
+        <v>225</v>
+      </c>
+      <c r="L24" t="s">
+        <v>226</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>227</v>
+      </c>
+      <c r="O24" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>229</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>230</v>
+      </c>
+      <c r="J25" t="s">
+        <v>231</v>
+      </c>
+      <c r="K25" t="s">
+        <v>232</v>
+      </c>
+      <c r="L25" t="s">
+        <v>233</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>227</v>
+      </c>
+      <c r="O25" t="s">
+        <v>87</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>236</v>
+      </c>
+      <c r="J26" t="s">
+        <v>237</v>
+      </c>
+      <c r="K26" t="s">
+        <v>238</v>
+      </c>
+      <c r="L26" t="s">
+        <v>239</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>240</v>
+      </c>
+      <c r="O26" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>243</v>
+      </c>
+      <c r="J27" t="s">
+        <v>244</v>
+      </c>
+      <c r="K27" t="s">
+        <v>245</v>
+      </c>
+      <c r="L27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>247</v>
+      </c>
+      <c r="O27" t="s">
+        <v>125</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>249</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>250</v>
+      </c>
+      <c r="J28" t="s">
+        <v>251</v>
+      </c>
+      <c r="K28" t="s">
+        <v>252</v>
+      </c>
+      <c r="L28" t="s">
+        <v>253</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>254</v>
+      </c>
+      <c r="O28" t="s">
+        <v>255</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>256</v>
+      </c>
+      <c r="X28" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>260</v>
+      </c>
+      <c r="J29" t="s">
+        <v>261</v>
+      </c>
+      <c r="K29" t="s">
+        <v>262</v>
+      </c>
+      <c r="L29" t="s">
+        <v>263</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>264</v>
+      </c>
+      <c r="O29" t="s">
+        <v>125</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>266</v>
+      </c>
+      <c r="J30" t="s">
+        <v>267</v>
+      </c>
+      <c r="K30" t="s">
+        <v>268</v>
+      </c>
+      <c r="L30" t="s">
+        <v>269</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>240</v>
+      </c>
+      <c r="O30" t="s">
+        <v>87</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>271</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>272</v>
+      </c>
+      <c r="J31" t="s">
+        <v>273</v>
+      </c>
+      <c r="K31" t="s">
+        <v>274</v>
+      </c>
+      <c r="L31" t="s">
+        <v>275</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>276</v>
+      </c>
+      <c r="O31" t="s">
+        <v>87</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>277</v>
+      </c>
+      <c r="X31" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>281</v>
+      </c>
+      <c r="J32" t="s">
+        <v>282</v>
+      </c>
+      <c r="K32" t="s">
+        <v>283</v>
+      </c>
+      <c r="L32" t="s">
+        <v>284</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>285</v>
+      </c>
+      <c r="O32" t="s">
+        <v>125</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>286</v>
+      </c>
+      <c r="X32" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>289</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>290</v>
+      </c>
+      <c r="J33" t="s">
+        <v>291</v>
+      </c>
+      <c r="K33" t="s">
+        <v>292</v>
+      </c>
+      <c r="L33" t="s">
+        <v>293</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>294</v>
+      </c>
+      <c r="X33" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>297</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>298</v>
+      </c>
+      <c r="J34" t="s">
+        <v>299</v>
+      </c>
+      <c r="K34" t="s">
+        <v>300</v>
+      </c>
+      <c r="L34" t="s">
+        <v>301</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>285</v>
+      </c>
+      <c r="O34" t="s">
+        <v>87</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>302</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>303</v>
+      </c>
+      <c r="J35" t="s">
+        <v>304</v>
+      </c>
+      <c r="K35" t="s">
+        <v>305</v>
+      </c>
+      <c r="L35" t="s">
+        <v>306</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>307</v>
+      </c>
+      <c r="O35" t="s">
+        <v>87</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>308</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>309</v>
+      </c>
+      <c r="J36" t="s">
+        <v>310</v>
+      </c>
+      <c r="K36" t="s">
+        <v>311</v>
+      </c>
+      <c r="L36" t="s">
+        <v>312</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>313</v>
+      </c>
+      <c r="O36" t="s">
+        <v>87</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>314</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>315</v>
+      </c>
+      <c r="J37" t="s">
+        <v>316</v>
+      </c>
+      <c r="K37" t="s">
+        <v>317</v>
+      </c>
+      <c r="L37" t="s">
+        <v>318</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>313</v>
+      </c>
+      <c r="O37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>319</v>
+      </c>
+      <c r="X37" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>322</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>323</v>
+      </c>
+      <c r="J38" t="s">
+        <v>324</v>
+      </c>
+      <c r="K38" t="s">
+        <v>325</v>
+      </c>
+      <c r="L38" t="s">
+        <v>326</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>327</v>
+      </c>
+      <c r="O38" t="s">
+        <v>125</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>329</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>330</v>
+      </c>
+      <c r="J39" t="s">
+        <v>331</v>
+      </c>
+      <c r="K39" t="s">
+        <v>332</v>
+      </c>
+      <c r="L39" t="s">
+        <v>333</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>334</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_69.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_69.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="534">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,111 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r612743969-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1733514</t>
+  </si>
+  <si>
+    <t>612743969</t>
+  </si>
+  <si>
+    <t>08/31/2018</t>
+  </si>
+  <si>
+    <t>In Town for Business</t>
+  </si>
+  <si>
+    <t>I checked in late Saturday night and I must say Nick at the front desk was very professional and knowledgeable about the amenities and the area. I also liked that the hotel was pretty quiet. I will definitely return to this location whenever I am in Houston.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r596687313-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>596687313</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>Needed a place to stay for early flight out of IAH.</t>
+  </si>
+  <si>
+    <t>We stayed here in order to catch a very early flight. Very clean room and had a nice little kitchenette. No complaints and would stay again.Parking lot was safe and security was in clear view every time we went outside to our car.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>James B, General Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded July 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here in order to catch a very early flight. Very clean room and had a nice little kitchenette. No complaints and would stay again.Parking lot was safe and security was in clear view every time we went outside to our car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r610371666-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>610371666</t>
+  </si>
+  <si>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>Great Service late at night</t>
+  </si>
+  <si>
+    <t>When I arrived to check in, it was late!! Like 1am late!!  I was frustrated cause the room was booked in the wrong name and I just wanted to get to bed!!  Thanks to Nick being calm and courteous, he fixed everything for me and I got checked in.  Thanks so much Nick!!  You Rock!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r601257705-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>601257705</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Great hotel for the price</t>
+  </si>
+  <si>
+    <t>I came to the hotel with a few friends for a social trip. The facilities are excellent. I was really impressed with a staff manager named Nicholas Heyward. I remember his name because he told us places to go for amusement. He always had a smile and a joke to make us feel more at home. He also made sure that our every need was met above our expectations. I dropped my credit card and he was right there when I returned with it in his hand asking me to check to make sure it was not used. I wanted to tip him but he said that was part of his job. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I came to the hotel with a few friends for a social trip. The facilities are excellent. I was really impressed with a staff manager named Nicholas Heyward. I remember his name because he told us places to go for amusement. He always had a smile and a joke to make us feel more at home. He also made sure that our every need was met above our expectations. I dropped my credit card and he was right there when I returned with it in his hand asking me to check to make sure it was not used. I wanted to tip him but he said that was part of his job. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r599735615-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>1733514</t>
-  </si>
-  <si>
     <t>599735615</t>
   </si>
   <si>
@@ -174,37 +267,19 @@
     <t>We came to this hotel in the middle of the night and Derick at the front desk had us in a room in minutes. He was incredibly kind to us. The parking lot is super secure because they have security. The cleaning crew is polite and professional. The supervisor is also very nice. Our room is very big and clean. It has a kitchen with a stove and microwave. The bathroom seems like it’s brand new. We will stay here every time we come to Houston now. The customer service is excellent and everything else exceeds my expectations for such a low price! :)</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r596687313-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
-  </si>
-  <si>
-    <t>596687313</t>
-  </si>
-  <si>
-    <t>07/16/2018</t>
-  </si>
-  <si>
-    <t>Needed a place to stay for early flight out of IAH.</t>
-  </si>
-  <si>
-    <t>We stayed here in order to catch a very early flight. Very clean room and had a nice little kitchenette. No complaints and would stay again.Parking lot was safe and security was in clear view every time we went outside to our car.MoreShow less</t>
-  </si>
-  <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t>James B, General Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>We stayed here in order to catch a very early flight. Very clean room and had a nice little kitchenette. No complaints and would stay again.Parking lot was safe and security was in clear view every time we went outside to our car.More</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r593160805-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>593160805</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>Excellent Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I first and foremost want to thank each and everyone of the staff that’s at this place. From the front desk staff to the housekeeping everyone is FRIENDLY and PROFESSIONAL. When I come to Houston and stay for business purposes I never get let down. I honestly can say I love staying at this place better than Holiday Inn express that represents IHG. Breyona, Crystal, and Sharon ALWAYS keep a smile on my face! </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r591020277-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
@@ -220,6 +295,50 @@
   </si>
   <si>
     <t>When my husband and I are in town, this is our home away from home! Always quick and easy check in with Ms Sharon &amp; Crystal! These two will do their best to meet all your needsRoom was clean, as usual...Pool, grill and great customer srevice Walmart and other stores are located not too far and all rooms have a stove top and full size refridgerator..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r582367610-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>582367610</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>The warmest welcome ever!</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel many times, but this time I was really recognized as a regular guest. I was greeted by Crystal at the front desk who recognized me by name and was so gracious! Then, I went to my room where a welcome gift was waiting with a greeting card by James the general manager! I travel alot and this was unexpected, but so nice! I will definitely stay here again!</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r581822050-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>581822050</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Piss POOR EXPERIENCE courtest of Nick</t>
+  </si>
+  <si>
+    <t>I am writing this response, because I am not exactly sure as to what the hell I experienced. Nick, who was the one who took our call at 12:30 am Monday May 21st was so discourteous that it made everyone in our party sick to our stomachs. 
+Let alone the entire at customer serivce for United Airlines. I cannot believe this company has hired such an incosiderate human to manage a front desk, let alone any interaction with other humans that are in need.
+IHG has to really consider who they hire. This entire fiasco began with Nick not allowing us to reserve a room. I believe his mentality stems from being purely lazy. However, we were at that point of utter distress, standing in line for 3.5 hours at the airport. The airport also stated that we needed to find lodging for the evening asap since hotels had been booked solid due to the weather delay.
+Moreover, Nick would not allow us to reserve a room. I am traveling with 5 ppl in my family, one of which is over 80 and another being a newborn. At this point we needed a sense of security knowing we had some place warm and safe to stay. Unfortunately, we ended up speaking to Nick and he really failed at any type of reassurance, let alone his sole of job of taking a reservation.
+He stated he could not reserve a room...I am writing this response, because I am not exactly sure as to what the hell I experienced. Nick, who was the one who took our call at 12:30 am Monday May 21st was so discourteous that it made everyone in our party sick to our stomachs. Let alone the entire at customer serivce for United Airlines. I cannot believe this company has hired such an incosiderate human to manage a front desk, let alone any interaction with other humans that are in need.IHG has to really consider who they hire. This entire fiasco began with Nick not allowing us to reserve a room. I believe his mentality stems from being purely lazy. However, we were at that point of utter distress, standing in line for 3.5 hours at the airport. The airport also stated that we needed to find lodging for the evening asap since hotels had been booked solid due to the weather delay.Moreover, Nick would not allow us to reserve a room. I am traveling with 5 ppl in my family, one of which is over 80 and another being a newborn. At this point we needed a sense of security knowing we had some place warm and safe to stay. Unfortunately, we ended up speaking to Nick and he really failed at any type of reassurance, let alone his sole of job of taking a reservation.He stated he could not reserve a room and then after I described our situation, he kept restating we did not need to reserve since they were not at full occupancy..... they had 20% of the rooms still available. However, as I stated before the entire airport was grounded and there were no other vacancies when we had called multiple other locations prior to ending up with Candlewood.Nick proceeded to tell me he could not help us and then became hostaile at me when I asked for his supervisor and then prior to hanging up on me he said "your mother." I decided to then call back again and ask for his full name and manager and he stated I did not need to know his name and there were NO managers available.I've honestly never expected something so disturbing as this in customer service! Needless to say after that piss poor event with Nick, it took another half hour to locate rooms for our party. We finally located another room elsewhere and happily spent twice as much. WE ARE THRILLED that we did not have to witness this ghoulish display of piss poor customer service in person. Unbelievable since everyone in line at the United Airlines customer service line heard our experience.... Which was filled with hundreds of individuals who needed a warm place to stay.IHG please invest in some sensitivity training for your staff. I will never stay at another one of your Locations, let alone stop sharing this experience with others.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am writing this response, because I am not exactly sure as to what the hell I experienced. Nick, who was the one who took our call at 12:30 am Monday May 21st was so discourteous that it made everyone in our party sick to our stomachs. 
+Let alone the entire at customer serivce for United Airlines. I cannot believe this company has hired such an incosiderate human to manage a front desk, let alone any interaction with other humans that are in need.
+IHG has to really consider who they hire. This entire fiasco began with Nick not allowing us to reserve a room. I believe his mentality stems from being purely lazy. However, we were at that point of utter distress, standing in line for 3.5 hours at the airport. The airport also stated that we needed to find lodging for the evening asap since hotels had been booked solid due to the weather delay.
+Moreover, Nick would not allow us to reserve a room. I am traveling with 5 ppl in my family, one of which is over 80 and another being a newborn. At this point we needed a sense of security knowing we had some place warm and safe to stay. Unfortunately, we ended up speaking to Nick and he really failed at any type of reassurance, let alone his sole of job of taking a reservation.
+He stated he could not reserve a room...I am writing this response, because I am not exactly sure as to what the hell I experienced. Nick, who was the one who took our call at 12:30 am Monday May 21st was so discourteous that it made everyone in our party sick to our stomachs. Let alone the entire at customer serivce for United Airlines. I cannot believe this company has hired such an incosiderate human to manage a front desk, let alone any interaction with other humans that are in need.IHG has to really consider who they hire. This entire fiasco began with Nick not allowing us to reserve a room. I believe his mentality stems from being purely lazy. However, we were at that point of utter distress, standing in line for 3.5 hours at the airport. The airport also stated that we needed to find lodging for the evening asap since hotels had been booked solid due to the weather delay.Moreover, Nick would not allow us to reserve a room. I am traveling with 5 ppl in my family, one of which is over 80 and another being a newborn. At this point we needed a sense of security knowing we had some place warm and safe to stay. Unfortunately, we ended up speaking to Nick and he really failed at any type of reassurance, let alone his sole of job of taking a reservation.He stated he could not reserve a room and then after I described our situation, he kept restating we did not need to reserve since they were not at full occupancy..... they had 20% of the rooms still available. However, as I stated before the entire airport was grounded and there were no other vacancies when we had called multiple other locations prior to ending up with Candlewood.Nick proceeded to tell me he could not help us and then became hostaile at me when I asked for his supervisor and then prior to hanging up on me he said "your mother." I decided to then call back again and ask for his full name and manager and he stated I did not need to know his name and there were NO managers available.I've honestly never expected something so disturbing as this in customer service! Needless to say after that piss poor event with Nick, it took another half hour to locate rooms for our party. We finally located another room elsewhere and happily spent twice as much. WE ARE THRILLED that we did not have to witness this ghoulish display of piss poor customer service in person. Unbelievable since everyone in line at the United Airlines customer service line heard our experience.... Which was filled with hundreds of individuals who needed a warm place to stay.IHG please invest in some sensitivity training for your staff. I will never stay at another one of your Locations, let alone stop sharing this experience with others.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r579419509-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
@@ -295,9 +414,6 @@
     <t>We visit Houston a lot on business. While my husband attends meetings I do my business on my laptop. As we are spire elite we usually have a  decent room. But not this time. The room is so small tbe bed is jammed up against the wall and is not accessible from both sides. So very awkward. The very nice maintenance guy spent all morning trying to fix the ac unit no luck. Had to pack everything up and move...yes to another postage stamp room. Also. No internet access. I have so far lost a whole day of work as i cannot access the hotel wifi. Dissapointed in more ways than one.  MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>James B, General Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded February 6, 2018</t>
   </si>
   <si>
@@ -307,6 +423,60 @@
     <t>We visit Houston a lot on business. While my husband attends meetings I do my business on my laptop. As we are spire elite we usually have a  decent room. But not this time. The room is so small tbe bed is jammed up against the wall and is not accessible from both sides. So very awkward. The very nice maintenance guy spent all morning trying to fix the ac unit no luck. Had to pack everything up and move...yes to another postage stamp room. Also. No internet access. I have so far lost a whole day of work as i cannot access the hotel wifi. Dissapointed in more ways than one.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r535123151-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>535123151</t>
+  </si>
+  <si>
+    <t>10/22/2017</t>
+  </si>
+  <si>
+    <t>Don't expect much .....</t>
+  </si>
+  <si>
+    <t>I stayed there because of a very early flight the next morning.  The snack/drink had no soft drinks to purchase only water and the snacks were real bare too.  Front desk was "I just work here".  The shuttle bus driver blamed it on Harvey.  due to an early flight I asked the front desk for a wake up call, which never came.  The rooms are old and run down.  Just avoid it unless there is no other option.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2017</t>
+  </si>
+  <si>
+    <t>I stayed there because of a very early flight the next morning.  The snack/drink had no soft drinks to purchase only water and the snacks were real bare too.  Front desk was "I just work here".  The shuttle bus driver blamed it on Harvey.  due to an early flight I asked the front desk for a wake up call, which never came.  The rooms are old and run down.  Just avoid it unless there is no other option.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r488273533-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488273533</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>Roach infested</t>
+  </si>
+  <si>
+    <t>The room was roach infested.  I had to change properties.  Furthermore, there is no maid service at all.  When you check in they say "no maid serice",  if you need towels bring the used ones down to the front desk and we'll  exchange.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded June 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2017</t>
+  </si>
+  <si>
+    <t>The room was roach infested.  I had to change properties.  Furthermore, there is no maid service at all.  When you check in they say "no maid serice",  if you need towels bring the used ones down to the front desk and we'll  exchange.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r472584926-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
   </si>
   <si>
@@ -370,6 +540,48 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r435728929-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435728929</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Do not stay! It is not the same as it once was.</t>
+  </si>
+  <si>
+    <t>My husband travels for work often and we stayed here in June due to the full kitchen. It was a very nice stay. The ice machine was broken, but quickly fixed when we brought it to their attention. There was a DVD player in the room and movies at the front desk for you to watch for free if needed. Staff was polite and knowledgeable. So when my husband had to come back to Houston for work I had no question of where we were staying. I knew it would be the Candlewood/Beltway 8 (oh ya, I loved the place so much our first stay we became reward members). I booked a week in advance for a room with king size bed, when we got there the bed was a double so I called down to the front desk and told her that I book a king bed and she first said I didn't, so I explained to her I had the printed reservation in hand that stated a king bed. Then she proceeded to tell me the worker before her changed it to a queen, of course I asked her why and she didn't know but there was nothing she could do because there were no king beds available. I then asked her what the purpose of making a reservation in advance with your room preferences if someone was just going to change them and her response was "I...My husband travels for work often and we stayed here in June due to the full kitchen. It was a very nice stay. The ice machine was broken, but quickly fixed when we brought it to their attention. There was a DVD player in the room and movies at the front desk for you to watch for free if needed. Staff was polite and knowledgeable. So when my husband had to come back to Houston for work I had no question of where we were staying. I knew it would be the Candlewood/Beltway 8 (oh ya, I loved the place so much our first stay we became reward members). I booked a week in advance for a room with king size bed, when we got there the bed was a double so I called down to the front desk and told her that I book a king bed and she first said I didn't, so I explained to her I had the printed reservation in hand that stated a king bed. Then she proceeded to tell me the worker before her changed it to a queen, of course I asked her why and she didn't know but there was nothing she could do because there were no king beds available. I then asked her what the purpose of making a reservation in advance with your room preferences if someone was just going to change them and her response was "I don't know". OK?? REALLY?? So finally she says "well I have someone else booked for a king that has not arrived yet so I will just change them to a queen and give you their king" WHAT? So now I know why my king was changed to a queen. Ok great, now I get what I want and when the other people arrive they get screwed. Great customer service! Finally get in the room and there is no DVD player and the carpet has white spots all over it and being an IHG Rewards member you are supposed to receive a "welcome gift", so when my husband returns the luggage carousel he asks the same lady at the front desk about the DVD player and the gift. Well, the DVD players are not in all rooms anymore and you can rent one if you like, but there were none left and ya no, they don't do the IHG Rewards Welcome Gifts anymore either.  No these are not life altering things, but it plastered everywhere in the hotel and in your room that these things are provided. The lack of concern, knowledge and them just giving a crap about your business means they will no longer receive my business! Staybridge Suites just opened 500 ft away and it looks like we will be giving them a try next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded November 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2016</t>
+  </si>
+  <si>
+    <t>My husband travels for work often and we stayed here in June due to the full kitchen. It was a very nice stay. The ice machine was broken, but quickly fixed when we brought it to their attention. There was a DVD player in the room and movies at the front desk for you to watch for free if needed. Staff was polite and knowledgeable. So when my husband had to come back to Houston for work I had no question of where we were staying. I knew it would be the Candlewood/Beltway 8 (oh ya, I loved the place so much our first stay we became reward members). I booked a week in advance for a room with king size bed, when we got there the bed was a double so I called down to the front desk and told her that I book a king bed and she first said I didn't, so I explained to her I had the printed reservation in hand that stated a king bed. Then she proceeded to tell me the worker before her changed it to a queen, of course I asked her why and she didn't know but there was nothing she could do because there were no king beds available. I then asked her what the purpose of making a reservation in advance with your room preferences if someone was just going to change them and her response was "I...My husband travels for work often and we stayed here in June due to the full kitchen. It was a very nice stay. The ice machine was broken, but quickly fixed when we brought it to their attention. There was a DVD player in the room and movies at the front desk for you to watch for free if needed. Staff was polite and knowledgeable. So when my husband had to come back to Houston for work I had no question of where we were staying. I knew it would be the Candlewood/Beltway 8 (oh ya, I loved the place so much our first stay we became reward members). I booked a week in advance for a room with king size bed, when we got there the bed was a double so I called down to the front desk and told her that I book a king bed and she first said I didn't, so I explained to her I had the printed reservation in hand that stated a king bed. Then she proceeded to tell me the worker before her changed it to a queen, of course I asked her why and she didn't know but there was nothing she could do because there were no king beds available. I then asked her what the purpose of making a reservation in advance with your room preferences if someone was just going to change them and her response was "I don't know". OK?? REALLY?? So finally she says "well I have someone else booked for a king that has not arrived yet so I will just change them to a queen and give you their king" WHAT? So now I know why my king was changed to a queen. Ok great, now I get what I want and when the other people arrive they get screwed. Great customer service! Finally get in the room and there is no DVD player and the carpet has white spots all over it and being an IHG Rewards member you are supposed to receive a "welcome gift", so when my husband returns the luggage carousel he asks the same lady at the front desk about the DVD player and the gift. Well, the DVD players are not in all rooms anymore and you can rent one if you like, but there were none left and ya no, they don't do the IHG Rewards Welcome Gifts anymore either.  No these are not life altering things, but it plastered everywhere in the hotel and in your room that these things are provided. The lack of concern, knowledge and them just giving a crap about your business means they will no longer receive my business! Staybridge Suites just opened 500 ft away and it looks like we will be giving them a try next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r434680601-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>434680601</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>Very good value for money</t>
+  </si>
+  <si>
+    <t>I'm here nearly one week per month, it is a clean hotel with friendly people. They have exactly what I need, horizontal bed, vertical shower, clean and a huge bureau. It is around the corner  to my clients at the energy coridor. I consider it my second home.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r425719993-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
   </si>
   <si>
@@ -409,9 +621,6 @@
     <t>The carpet was filthy, ants in the bathtub and around the toilet, brown stains in toilet and hair around toilet. Towels in bathroom looked used, the next day I ask for fresh towels and they were hard and did not look clean. Ask for cleaning products to clean our room, had to wait on housekeeping the next day, ask housekeeping and they sent me back to the front desk. The room had a foul odor, I cleaned our room with dishwashing soap, when I ask for another one I was told they were out. You maybe asking yourself why did we stay, checked in early morning and had a funeral to attend  about 4 hours after check-in. I will never, ever visit this Candlewood Suites location again.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded October 20, 2016</t>
   </si>
   <si>
@@ -448,6 +657,48 @@
     <t>This hotel in on the Beltway, It is very handy if you need to access the industrial area along Aldine Bender Rd, or even to the Airport just up the road. The room has a kitchenette and enough room to spread out. The staff is friendly, the rooms are clean. i don't like the idea of having to request linens at the front desk, but I guess it is a trade off for the larger room vs a higher per night rate.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r386332900-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>386332900</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Room </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was a great room , with a great price the only thing was about 10pm we was woke up from a dude beating and cussing at his girlfriend cause he found her phone and she was cheating, this went on and on for hours , so our nights sleep not a good one , but the 1st night was so peaceful and quite , I will stay again but not on the 3rd floor </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r384170256-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>384170256</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>Disapointing</t>
+  </si>
+  <si>
+    <t>When I walked into my first room I was greeted by an incredibly noisy fan over the stove in the kitchenette.  I was unable to turn it off.  The switch was broken.  How ANYONE could have considered this room ready for a hotel patron is absolutely beyond me.  The replacement room was quiet but all the glasses, coffee cups and pitcher were coated with dried soap and God knows what else. They were filthy. I tried to contact the front desk and the line was busy for over 40 minutes.  Pretty bad.  Definitely sub par.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded July 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2016</t>
+  </si>
+  <si>
+    <t>When I walked into my first room I was greeted by an incredibly noisy fan over the stove in the kitchenette.  I was unable to turn it off.  The switch was broken.  How ANYONE could have considered this room ready for a hotel patron is absolutely beyond me.  The replacement room was quiet but all the glasses, coffee cups and pitcher were coated with dried soap and God knows what else. They were filthy. I tried to contact the front desk and the line was busy for over 40 minutes.  Pretty bad.  Definitely sub par.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r383405268-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
   </si>
   <si>
@@ -520,6 +771,57 @@
     <t>We flew in late to Houston and didn't want to spend a fortune on a room so I booked one here. The room was clean. The people were friendly and it was a great value. I didn't need all of the suite amenities I sure wasn't using the kitchen during my stay, but I got to sleep in and in the morning Sonic was right down the street with some chewy ice...I can't help it really, I'm anemic I love that ice!  Anyway the room was well on the smaller side if we had been staying for a long period of time but we weren't. Bathroom had everything we needed. I would consider staying again but the staybridge is half a block away and we stayed there right before our flight home and I liked it a little more.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r370430194-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>370430194</t>
+  </si>
+  <si>
+    <t>05/05/2016</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>For $100 per night close to the airport,  I expected little more than a lock on the door and no bugs in the bed. Arrived tired at 1.30am to one of the friendliest receptions ever,  and I've seen a lot of them. The room was clean,  nice and comfy. Checkout was fast and again friendly. I don't give top scores often,  but got $100 per night,  this place gets it. MoreShow less</t>
+  </si>
+  <si>
+    <t>Sharlene O, General Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2016</t>
+  </si>
+  <si>
+    <t>For $100 per night close to the airport,  I expected little more than a lock on the door and no bugs in the bed. Arrived tired at 1.30am to one of the friendliest receptions ever,  and I've seen a lot of them. The room was clean,  nice and comfy. Checkout was fast and again friendly. I don't give top scores often,  but got $100 per night,  this place gets it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r365481019-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365481019</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>4 DAY NIGHTMARE!</t>
+  </si>
+  <si>
+    <t>Stayed from Friday 11PM; Checked out Tuesday. Requested a smoking room when making my reservation, yet no smoking rooms were actually available for any days. The room was tolerable, at best. First of all the bed - WAS HORRIBLE. You could breathe and it would creak. You could wiggle your small toe and it sounded like you were jumping on a metal frame bed from 1862. It was HORRIBLE. Secondly, it sounded like there were 16 wrestling team try outs or bowling lanes above us ALL DAY. The noise was CRAZY. We couldn't sleep and had to blast our TV.  Requested other rooms, nothing available. Third, there was ghost water running in our bathroom.  The sound of running water continuously came from the bathroom when no one was in it. Kinda freeeeeakkkkkky. Thirdly, our room didn't get cleaned once during our stay.  Not to mention - there were big 4-5 inch nasty bugs and dead frogs in the window sill. The streets flooded making us have to stay an additional night, and thankfully I was given the same rate as the previous days.  However, the airport shuttle van got stuck in the flood and we had to make our way to the airport at 4 in the morning. :-(   The staff was nice, but I'll never stay there again. I was there for my birthday weekend with company from out of town, and it was NOT a good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded May 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2016</t>
+  </si>
+  <si>
+    <t>Stayed from Friday 11PM; Checked out Tuesday. Requested a smoking room when making my reservation, yet no smoking rooms were actually available for any days. The room was tolerable, at best. First of all the bed - WAS HORRIBLE. You could breathe and it would creak. You could wiggle your small toe and it sounded like you were jumping on a metal frame bed from 1862. It was HORRIBLE. Secondly, it sounded like there were 16 wrestling team try outs or bowling lanes above us ALL DAY. The noise was CRAZY. We couldn't sleep and had to blast our TV.  Requested other rooms, nothing available. Third, there was ghost water running in our bathroom.  The sound of running water continuously came from the bathroom when no one was in it. Kinda freeeeeakkkkkky. Thirdly, our room didn't get cleaned once during our stay.  Not to mention - there were big 4-5 inch nasty bugs and dead frogs in the window sill. The streets flooded making us have to stay an additional night, and thankfully I was given the same rate as the previous days.  However, the airport shuttle van got stuck in the flood and we had to make our way to the airport at 4 in the morning. :-(   The staff was nice, but I'll never stay there again. I was there for my birthday weekend with company from out of town, and it was NOT a good experience.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r340638271-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
   </si>
   <si>
@@ -583,9 +885,6 @@
     <t>04/30/2015</t>
   </si>
   <si>
-    <t>Disapointing</t>
-  </si>
-  <si>
     <t>This Hotel is small and in a isolated area which is not easily accessed. It was clean but that is all I can say positive about it. Upon check in all I was asked was if I wanted the points or a bottle of water, no recognition for being a Platinum Elite member. Apparently the clerk paid no attention to my reservation request be cause I requested a top floor with 2 beds. After we were assigned our room (on the first floor) I opened the door and it had 1 queen bed. Turned right around and told the clerk my reservation was for 2 beds, not 1 preferably on the top floor. He offered no explanation nor apology and reassigned us to another room on the bottom floor again.  This was no big problem but it did agitate me which I did not appreciate. The room was clean, but the furnishings and the old curtains and drapes with holes in them and the staff attitude along with the location just made me decide to never stay in this Candlewood Suites property again.MoreShow less</t>
   </si>
   <si>
@@ -601,6 +900,51 @@
     <t>This Hotel is small and in a isolated area which is not easily accessed. It was clean but that is all I can say positive about it. Upon check in all I was asked was if I wanted the points or a bottle of water, no recognition for being a Platinum Elite member. Apparently the clerk paid no attention to my reservation request be cause I requested a top floor with 2 beds. After we were assigned our room (on the first floor) I opened the door and it had 1 queen bed. Turned right around and told the clerk my reservation was for 2 beds, not 1 preferably on the top floor. He offered no explanation nor apology and reassigned us to another room on the bottom floor again.  This was no big problem but it did agitate me which I did not appreciate. The room was clean, but the furnishings and the old curtains and drapes with holes in them and the staff attitude along with the location just made me decide to never stay in this Candlewood Suites property again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r258671650-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>258671650</t>
+  </si>
+  <si>
+    <t>03/09/2015</t>
+  </si>
+  <si>
+    <t>Friendly staff, isolated location, mechanical issues</t>
+  </si>
+  <si>
+    <t>Nice and roomy, clean room, most appliances worked. Hair dryer did not. Stayed here because all the hotels near the airport were booked. Quite a trip from the airport even if renting a car. They do have a shuttle but I didn't try it. I'd stay again if in the same situation. Conveniently located to Sam Houston / Beltway 8.  Staff were friendly, welcoming and professional. There's a 24 hour convenience store with frozen foods, snacks and basic toiletries. Washer dryer on the premises.After check in I found a better rate on the hotel's own website than the one quoted me on the phone. They changed my reservation to the lower rate without any problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Kerri A, Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded March 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2015</t>
+  </si>
+  <si>
+    <t>Nice and roomy, clean room, most appliances worked. Hair dryer did not. Stayed here because all the hotels near the airport were booked. Quite a trip from the airport even if renting a car. They do have a shuttle but I didn't try it. I'd stay again if in the same situation. Conveniently located to Sam Houston / Beltway 8.  Staff were friendly, welcoming and professional. There's a 24 hour convenience store with frozen foods, snacks and basic toiletries. Washer dryer on the premises.After check in I found a better rate on the hotel's own website than the one quoted me on the phone. They changed my reservation to the lower rate without any problems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r258210108-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>258210108</t>
+  </si>
+  <si>
+    <t>03/07/2015</t>
+  </si>
+  <si>
+    <t>Close to airport and highway</t>
+  </si>
+  <si>
+    <t>I stayed the night before an early flight our of IAH. The hotel is close to the close to airport and highway. They have complementary shuttle bus. The rooms has a small kitchen, a small bath room and a decent sized main room. The TV channels were quite few. The hotel service its purpose by being conveniently located close to the IAH airportMoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed the night before an early flight our of IAH. The hotel is close to the close to airport and highway. They have complementary shuttle bus. The rooms has a small kitchen, a small bath room and a decent sized main room. The TV channels were quite few. The hotel service its purpose by being conveniently located close to the IAH airportMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r238301000-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
   </si>
   <si>
@@ -682,6 +1026,45 @@
     <t>I was so disappointed in my stay at Candlewood. We were looking at a hotel near the airport in which to leave our car while we flew out of IAH and were gone for 8 days. The leaving the car at the hotel was fine. However, the room, in my opinion was way overpriced. The shuttle to the airport was great. We left at 5:30 am and had no trouble. I wish I could say the same for our return. We waited at the airport--after two calls to the hotel-- for an hour and ended up taking a cab to go pick up our car. We will not be staying there again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r216370631-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>216370631</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty nice rooms, but watch your bill. </t>
+  </si>
+  <si>
+    <t>The rooms were fairly nice and as most candlewood properties included a full size fridge, microwave, and a small stove top. This is great if you're staying for more than a few days and don't want to spend the money to eat out every night. The room included a desk and a small recliner which I really appreciated. It's always great to have a place to sit and work other than the bed. The slightly unsettling thing about this hotel was that in the first floor hallway there were several bins where it seemed everyone threw their trash every night. It was foul smelling and unsightly. I can't imagine that having large piles of trash sitting in the hallway all night is at all in line with candlewood policy or health code. Having stayed at a candlewood before I was familiar with their weekly housekeeping policies. Upon check in I was told my room was scheduled for service on Tuesday. The room was not serviced on Tuesday however but a mystery charge for $25 in housekeeping was put on my credit card. This is infuriating and as of this point I have had no success in getting either a credit or an explanation for it. I have always had good experiences at candlewood properties but after this I am not sure I'd return. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded August 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2014</t>
+  </si>
+  <si>
+    <t>The rooms were fairly nice and as most candlewood properties included a full size fridge, microwave, and a small stove top. This is great if you're staying for more than a few days and don't want to spend the money to eat out every night. The room included a desk and a small recliner which I really appreciated. It's always great to have a place to sit and work other than the bed. The slightly unsettling thing about this hotel was that in the first floor hallway there were several bins where it seemed everyone threw their trash every night. It was foul smelling and unsightly. I can't imagine that having large piles of trash sitting in the hallway all night is at all in line with candlewood policy or health code. Having stayed at a candlewood before I was familiar with their weekly housekeeping policies. Upon check in I was told my room was scheduled for service on Tuesday. The room was not serviced on Tuesday however but a mystery charge for $25 in housekeeping was put on my credit card. This is infuriating and as of this point I have had no success in getting either a credit or an explanation for it. I have always had good experiences at candlewood properties but after this I am not sure I'd return. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r210220800-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210220800</t>
+  </si>
+  <si>
+    <t>06/13/2014</t>
+  </si>
+  <si>
+    <t>Service and Stay</t>
+  </si>
+  <si>
+    <t>Surprised at the quality of the hotel, very happy to stay here. Adrienne was very friendly and very helpful. She made our stay much more than we expected it would be. She was helpful and friendly to us.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r209555953-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
   </si>
   <si>
@@ -739,6 +1122,51 @@
     <t>It is 15 minutes away from the airport and that depends also on traffic.  The shuttles takes you within the five mikes radius of the airport which portable you might want to take advantage because there is nothing around to eat except for a Burger King which you have to walk to next to the highway and open fieldsFairly new construction as well with other smaller hotels next to each other.The staff is very friendly an the rooms have a full size fridge, two electric stove kitchen, some utensils, pits and pans. Microwave. Great for families and anyone looking to make their own meals.Bathroom is spacious and clean.  Not a fan of the one bottle of shampoo, conditioner combo but ok.  Where is the lotion?Comfortable bed, grab and go breakfast bag for early birds.  Thank you for the quiet night and friendly helloMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r198023696-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198023696</t>
+  </si>
+  <si>
+    <t>03/19/2014</t>
+  </si>
+  <si>
+    <t>Don't do it!</t>
+  </si>
+  <si>
+    <t>My first impression with this hotel...I walked in and noticed paint stains on the bedspread and stained carpets. I had already read the reviews and knew that there were management issues with this property. I decided to gamble, and I lost. The room was large and had many amenities...kitchen, dishwasher, garbage disposal, full-size refrigerator..It's all there. I laid down on the bed and was overwhelmed with a funky odor. It smelled like something dead or rotten. The odor was very pervasive. I tried to locate it in vain. I sprayed cologne all over the mattress and box spring and was left with a sweet, moldy, offensive odor. I managed to sleep for a few hours, but the stench eventually drove me out of the bed.This was without a doubt the biggest ripoff I have encountered. Steer clear of this hellhole.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded April 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2014</t>
+  </si>
+  <si>
+    <t>My first impression with this hotel...I walked in and noticed paint stains on the bedspread and stained carpets. I had already read the reviews and knew that there were management issues with this property. I decided to gamble, and I lost. The room was large and had many amenities...kitchen, dishwasher, garbage disposal, full-size refrigerator..It's all there. I laid down on the bed and was overwhelmed with a funky odor. It smelled like something dead or rotten. The odor was very pervasive. I tried to locate it in vain. I sprayed cologne all over the mattress and box spring and was left with a sweet, moldy, offensive odor. I managed to sleep for a few hours, but the stench eventually drove me out of the bed.This was without a doubt the biggest ripoff I have encountered. Steer clear of this hellhole.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r192407442-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>192407442</t>
+  </si>
+  <si>
+    <t>01/28/2014</t>
+  </si>
+  <si>
+    <t>Decent hotel for a night near the airport</t>
+  </si>
+  <si>
+    <t>Typical no frills, low end, Holiday Inn brand within a few short miles of the IAH airport. There are no restaurants or other stores within walking distance, so it is fairly isolated unless you have a vehicle. The room and public areas were clean. The bed was comfortable. The two staff members that I interacted with were both friendly and helpful. They have a 24 hour shuttle to the airport. There are better hotels that are also closer to the airport, but they are significantly more expensive. So I have no problem recommending this hotel.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r184182199-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
   </si>
   <si>
@@ -799,9 +1227,6 @@
     <t>September 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Kerri A, General Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded September 11, 2013</t>
   </si>
   <si>
@@ -809,6 +1234,50 @@
   </si>
   <si>
     <t>I've stayed at this hotel for leisure between flights for one night. I mostly enjoyed the pool which was clean and functional. There are no restaurants at this hotel however if you are driving ( I wasn't at the time) - there are a number of restaurants a few minutes drive away. I had to do with a Burger King and some beers bought from gas station, which is 5 minutes walk from the hotel.If I planned a longer trip in Houston, I would definitely have stayed at this hotel comfortably for 10+ nights without being too bored.... The shuttle. You have to ring hotel once you have arrived at the airport and advise where to pick you up .example, terminal xxx arrivals.... The shuttle is run every 30 minutes. Thanks to all the staff ate the hotel for my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r175291772-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175291772</t>
+  </si>
+  <si>
+    <t>09/02/2013</t>
+  </si>
+  <si>
+    <t>Careless Service</t>
+  </si>
+  <si>
+    <t>I drove all the way from FL to manage some business in Houston, TX. I work for a staffing agency and we are here to open up an office. I needed to use the conference room at the Candlewood Suites to conduct a few interviews. 9/1/13 I asked the front desk agent what can I do to go in the conference room and she stated that I needed to rent it for $250 and gave the hotel GM business card to give her a call. I did but she does not work on the weekends. Next day first thing in the morning, I came down to personally talk to Kerri Allen but Iris Rodriguez at the FD told me she was not in yet.  
+When she got to work I went to her office, handed her my business card and explained what I was doing here and she gave me a “discount” for the conference room usage; which I was still not happy because I do this all the time. I stay almost every month in one of the IHG hotel and use their conference room without a charge. I try to tell her that I was going to stay 13 nights but she stayed her ground and so I was. So I asked her to find me another hotel nearby that did not charge me to use their conference. Kerri Allen did not hesitate to do so; she did...I drove all the way from FL to manage some business in Houston, TX. I work for a staffing agency and we are here to open up an office. I needed to use the conference room at the Candlewood Suites to conduct a few interviews. 9/1/13 I asked the front desk agent what can I do to go in the conference room and she stated that I needed to rent it for $250 and gave the hotel GM business card to give her a call. I did but she does not work on the weekends. Next day first thing in the morning, I came down to personally talk to Kerri Allen but Iris Rodriguez at the FD told me she was not in yet.  When she got to work I went to her office, handed her my business card and explained what I was doing here and she gave me a “discount” for the conference room usage; which I was still not happy because I do this all the time. I stay almost every month in one of the IHG hotel and use their conference room without a charge. I try to tell her that I was going to stay 13 nights but she stayed her ground and so I was. So I asked her to find me another hotel nearby that did not charge me to use their conference. Kerri Allen did not hesitate to do so; she did not try to keep me in house at all. She rather lose $1,400 over $50 that cost me to rent the conference room.Not even 15 minutes passed when The Ramada called me telling me that they will have me there, bill Candlewood Suites, and let me use their conference room for free. That’s what I call service! Then I remember that I have equipment already shipped to Candlewood Suites. So I went over the FD again and express my packages concern to Iris Rodriguez and she stated “as soon as we get you mail, I can give you a call so you can pick it up or I just return it because you won’t be staying here” – and that just blew my head off, how can she say that??? What kind of service is this??? I am actually telling her that I am expecting packages, how come she is going to return it????? When I expressed this to her she said it was my fault because I am the one moving from this hotel to the other one.  We went back a forth and her attitude kept raising and rising. The General Manage did not involve herself at all in this situation. And that’s exactly why I am writing this complaint. Not only because I am a loyal guest and they are not doing anything to keep me in house, most likely for the careless service I have ever received in my entire life. BTW I found a roach in my bathroom and their business center station it was out of order... ugh!MoreShow less</t>
+  </si>
+  <si>
+    <t>Kerri A, General Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded September 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2013</t>
+  </si>
+  <si>
+    <t>I drove all the way from FL to manage some business in Houston, TX. I work for a staffing agency and we are here to open up an office. I needed to use the conference room at the Candlewood Suites to conduct a few interviews. 9/1/13 I asked the front desk agent what can I do to go in the conference room and she stated that I needed to rent it for $250 and gave the hotel GM business card to give her a call. I did but she does not work on the weekends. Next day first thing in the morning, I came down to personally talk to Kerri Allen but Iris Rodriguez at the FD told me she was not in yet.  
+When she got to work I went to her office, handed her my business card and explained what I was doing here and she gave me a “discount” for the conference room usage; which I was still not happy because I do this all the time. I stay almost every month in one of the IHG hotel and use their conference room without a charge. I try to tell her that I was going to stay 13 nights but she stayed her ground and so I was. So I asked her to find me another hotel nearby that did not charge me to use their conference. Kerri Allen did not hesitate to do so; she did...I drove all the way from FL to manage some business in Houston, TX. I work for a staffing agency and we are here to open up an office. I needed to use the conference room at the Candlewood Suites to conduct a few interviews. 9/1/13 I asked the front desk agent what can I do to go in the conference room and she stated that I needed to rent it for $250 and gave the hotel GM business card to give her a call. I did but she does not work on the weekends. Next day first thing in the morning, I came down to personally talk to Kerri Allen but Iris Rodriguez at the FD told me she was not in yet.  When she got to work I went to her office, handed her my business card and explained what I was doing here and she gave me a “discount” for the conference room usage; which I was still not happy because I do this all the time. I stay almost every month in one of the IHG hotel and use their conference room without a charge. I try to tell her that I was going to stay 13 nights but she stayed her ground and so I was. So I asked her to find me another hotel nearby that did not charge me to use their conference. Kerri Allen did not hesitate to do so; she did not try to keep me in house at all. She rather lose $1,400 over $50 that cost me to rent the conference room.Not even 15 minutes passed when The Ramada called me telling me that they will have me there, bill Candlewood Suites, and let me use their conference room for free. That’s what I call service! Then I remember that I have equipment already shipped to Candlewood Suites. So I went over the FD again and express my packages concern to Iris Rodriguez and she stated “as soon as we get you mail, I can give you a call so you can pick it up or I just return it because you won’t be staying here” – and that just blew my head off, how can she say that??? What kind of service is this??? I am actually telling her that I am expecting packages, how come she is going to return it????? When I expressed this to her she said it was my fault because I am the one moving from this hotel to the other one.  We went back a forth and her attitude kept raising and rising. The General Manage did not involve herself at all in this situation. And that’s exactly why I am writing this complaint. Not only because I am a loyal guest and they are not doing anything to keep me in house, most likely for the careless service I have ever received in my entire life. BTW I found a roach in my bathroom and their business center station it was out of order... ugh!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r174700292-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>174700292</t>
+  </si>
+  <si>
+    <t>08/29/2013</t>
+  </si>
+  <si>
+    <t>Miss Adrienne</t>
+  </si>
+  <si>
+    <t>Ms. Adrienne really does take real good care of us, when we visit!!!!!She really goes out of her way to make sure we have what we need.The entire staff is the same way.You should try it sometime.We've chosen to go their several times, on the weekends, because their staff is SUPER nice!</t>
+  </si>
+  <si>
+    <t>August 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r170626762-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
@@ -876,6 +1345,60 @@
     <t>There is no room cleaning everyday . Free wi fi. There is no breakfast at all. Rooms are fully equiped for long stay incl. kitchen.If you'd like to change towel you need to bring it to thereception and get another one. Rooms are clean and nice. No restaurants in the walking distance.Nice spot for grilling No lobby to sit and no conference room.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r154804290-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154804290</t>
+  </si>
+  <si>
+    <t>03/16/2013</t>
+  </si>
+  <si>
+    <t>Very decent</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 weeks for a company paid moved to Houston....this was suppose to be our "Corporate housing for 30 days. I can not comment on the price since we did not pay. The hotel is clean, nice and near the airport....24 hr shuttle to IAH, local grocery stores, mall, etc. It not located with in walking distance to any thing that you might want to eat or shop. The room is larger for a 2 star hotel....a good value....and the suite has a full size frig and kitchenette...the bed was nice...as was the staff. There is a nice desk to work at and sofa chair.....MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded July 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 weeks for a company paid moved to Houston....this was suppose to be our "Corporate housing for 30 days. I can not comment on the price since we did not pay. The hotel is clean, nice and near the airport....24 hr shuttle to IAH, local grocery stores, mall, etc. It not located with in walking distance to any thing that you might want to eat or shop. The room is larger for a 2 star hotel....a good value....and the suite has a full size frig and kitchenette...the bed was nice...as was the staff. There is a nice desk to work at and sofa chair.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r151858114-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151858114</t>
+  </si>
+  <si>
+    <t>02/10/2013</t>
+  </si>
+  <si>
+    <t>Great property with one minor issue</t>
+  </si>
+  <si>
+    <t>Okay, all the other reviews here are spot on. I stayed at this property for one night and the staff were fantastic, the bed was fine, kitchen was clean, bathroom was clean...everything was okay! But I did notice one particular thing on the floor and when I went to check it out, it turned out to be a dead cockroach. Now, I double checked the room and didn't not find any more. I am a mature guy, I simply flushed it down the toilet. Since I didn't see any more in the room, I just went about my business. I probably should have informed the front desk and in retrospect, I may reach out to them to let them know in case this is part of a wider issue with the room I stayed in.Anyways, don't let this review change your mind. This property is still of good value and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>MsSuitePeach, VP, PMI Hotels INC at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded February 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2013</t>
+  </si>
+  <si>
+    <t>Okay, all the other reviews here are spot on. I stayed at this property for one night and the staff were fantastic, the bed was fine, kitchen was clean, bathroom was clean...everything was okay! But I did notice one particular thing on the floor and when I went to check it out, it turned out to be a dead cockroach. Now, I double checked the room and didn't not find any more. I am a mature guy, I simply flushed it down the toilet. Since I didn't see any more in the room, I just went about my business. I probably should have informed the front desk and in retrospect, I may reach out to them to let them know in case this is part of a wider issue with the room I stayed in.Anyways, don't let this review change your mind. This property is still of good value and clean.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r151077082-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
   </si>
   <si>
@@ -891,15 +1414,6 @@
     <t>1- The good - a-Guys at the reception/front desk are very very helpful!!! Outstanding service!!                       b-Good location if you want to stay close to the  Bush airport                       c-Rooms are in good and clean condition2- The bad - Houston is a huge city. Location is bad if you want to stay close to downtown or Nasa(70km) which is the almost the only thing that is worth seeing in Houston3- The ugly - Booking online accepted a family of 5 staying in one room. When we arrived ,the room had only 2 queen beds , so one of my sons had to sleep on the bedroom floor.On the 3rd night they we moved to a room with a King size bed and a sofa bed.Then ,at least ,everybody was able to sleep some inches from the floorMoreShow less</t>
   </si>
   <si>
-    <t>January 2013</t>
-  </si>
-  <si>
-    <t>MsSuitePeach, VP, PMI Hotels INC at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded February 12, 2013</t>
-  </si>
-  <si>
-    <t>Responded February 12, 2013</t>
-  </si>
-  <si>
     <t>1- The good - a-Guys at the reception/front desk are very very helpful!!! Outstanding service!!                       b-Good location if you want to stay close to the  Bush airport                       c-Rooms are in good and clean condition2- The bad - Houston is a huge city. Location is bad if you want to stay close to downtown or Nasa(70km) which is the almost the only thing that is worth seeing in Houston3- The ugly - Booking online accepted a family of 5 staying in one room. When we arrived ,the room had only 2 queen beds , so one of my sons had to sleep on the bedroom floor.On the 3rd night they we moved to a room with a King size bed and a sofa bed.Then ,at least ,everybody was able to sleep some inches from the floorMore</t>
   </si>
   <si>
@@ -942,6 +1456,57 @@
     <t>As a Priority Club member, I make it a point to stay at the Candlewood near IAH when I'm in town on business. I enjoy the Manager's receptions and the Front Desk folks are ALWAYS super! Rooms are clean and just like every other Candlewood.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r145041066-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145041066</t>
+  </si>
+  <si>
+    <t>11/09/2012</t>
+  </si>
+  <si>
+    <t>VERY Rude Staff &amp; Unreliable Shuttle Service</t>
+  </si>
+  <si>
+    <t>I'm not sure about all the other good reviews written about this hotel/motel (probably written by the hotel staff themselves). I stayed at hotel for a month. It was fine for the most part EXCEPT:
+1) A VERY rude female staff member (female in her llate 20s or early 30s) who work at the front desk (All other front desk staff are fine). See below.
+2) Unreliable shuttle service. It is late 8 times out 10 with NO APOLOGY whatsoever. Most of the times are at least 15-20 minutes late. One time I missed my flight because the shuttle was 45 minutes late. Not to mentioned I had reserved for the pick-up well in advance. Again, no apology from the hotel front desk at all. When I called front desk to ensure driver was on the way, I was told by the same female front desk member that I was not the only guest who needed the shuttle service and she proceeded to hang up the phone on me. This had happened on several occassions. UNBELIEVABLE! Honestly, she was the most UNPROFESSIONAL hotel personnel I have ever encountered and I travel every week so I have stayed at many different hotels. 
+3) Rooms are starting to fall apart. For the month I have stayed there in different rooms, I have seen ants in the bathroom, sticky substance all over the work desk in the room, lights that did not work...I'm not sure about all the other good reviews written about this hotel/motel (probably written by the hotel staff themselves). I stayed at hotel for a month. It was fine for the most part EXCEPT:1) A VERY rude female staff member (female in her llate 20s or early 30s) who work at the front desk (All other front desk staff are fine). See below.2) Unreliable shuttle service. It is late 8 times out 10 with NO APOLOGY whatsoever. Most of the times are at least 15-20 minutes late. One time I missed my flight because the shuttle was 45 minutes late. Not to mentioned I had reserved for the pick-up well in advance. Again, no apology from the hotel front desk at all. When I called front desk to ensure driver was on the way, I was told by the same female front desk member that I was not the only guest who needed the shuttle service and she proceeded to hang up the phone on me. This had happened on several occassions. UNBELIEVABLE! Honestly, she was the most UNPROFESSIONAL hotel personnel I have ever encountered and I travel every week so I have stayed at many different hotels. 3) Rooms are starting to fall apart. For the month I have stayed there in different rooms, I have seen ants in the bathroom, sticky substance all over the work desk in the room, lights that did not work or have fallen off the wall, toilet rim, bathub floor, refrigerator with stains. I worked at Houston for another 6 months and would have continued to stay in this hotel for those 6 months. However, due to the extreme unrprofessionalism and rudeness of the female staff mentioned above on more than one occassion (P.S. I have also heard the same thing spoken about this female staff from other hotel guests and the hotel's own drivers), I cancelled all my reservations at this hotel. This hotel lost 6 months' worth of my business.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>MsSuitePeach, VP, PMI Hotels INC at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded November 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2012</t>
+  </si>
+  <si>
+    <t>I'm not sure about all the other good reviews written about this hotel/motel (probably written by the hotel staff themselves). I stayed at hotel for a month. It was fine for the most part EXCEPT:
+1) A VERY rude female staff member (female in her llate 20s or early 30s) who work at the front desk (All other front desk staff are fine). See below.
+2) Unreliable shuttle service. It is late 8 times out 10 with NO APOLOGY whatsoever. Most of the times are at least 15-20 minutes late. One time I missed my flight because the shuttle was 45 minutes late. Not to mentioned I had reserved for the pick-up well in advance. Again, no apology from the hotel front desk at all. When I called front desk to ensure driver was on the way, I was told by the same female front desk member that I was not the only guest who needed the shuttle service and she proceeded to hang up the phone on me. This had happened on several occassions. UNBELIEVABLE! Honestly, she was the most UNPROFESSIONAL hotel personnel I have ever encountered and I travel every week so I have stayed at many different hotels. 
+3) Rooms are starting to fall apart. For the month I have stayed there in different rooms, I have seen ants in the bathroom, sticky substance all over the work desk in the room, lights that did not work...I'm not sure about all the other good reviews written about this hotel/motel (probably written by the hotel staff themselves). I stayed at hotel for a month. It was fine for the most part EXCEPT:1) A VERY rude female staff member (female in her llate 20s or early 30s) who work at the front desk (All other front desk staff are fine). See below.2) Unreliable shuttle service. It is late 8 times out 10 with NO APOLOGY whatsoever. Most of the times are at least 15-20 minutes late. One time I missed my flight because the shuttle was 45 minutes late. Not to mentioned I had reserved for the pick-up well in advance. Again, no apology from the hotel front desk at all. When I called front desk to ensure driver was on the way, I was told by the same female front desk member that I was not the only guest who needed the shuttle service and she proceeded to hang up the phone on me. This had happened on several occassions. UNBELIEVABLE! Honestly, she was the most UNPROFESSIONAL hotel personnel I have ever encountered and I travel every week so I have stayed at many different hotels. 3) Rooms are starting to fall apart. For the month I have stayed there in different rooms, I have seen ants in the bathroom, sticky substance all over the work desk in the room, lights that did not work or have fallen off the wall, toilet rim, bathub floor, refrigerator with stains. I worked at Houston for another 6 months and would have continued to stay in this hotel for those 6 months. However, due to the extreme unrprofessionalism and rudeness of the female staff mentioned above on more than one occassion (P.S. I have also heard the same thing spoken about this female staff from other hotel guests and the hotel's own drivers), I cancelled all my reservations at this hotel. This hotel lost 6 months' worth of my business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r144190809-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144190809</t>
+  </si>
+  <si>
+    <t>10/31/2012</t>
+  </si>
+  <si>
+    <t>Great hotel for long term stay</t>
+  </si>
+  <si>
+    <t>This is my second time staying at this hotel.  Comfortable bed, excellent air conditioning/heating, flat screen tv, DVD player with library at the front desk, full kitchen, and well appointed bathroom.  Very close to IAH, however you must travel should you want to go to a sit down restaurant or a shopping center.  I thought the noise from the Beltway would be a problem, but has not bothered me at all.  There is an on site convenience store, and it is based on the honor system.  Most of the staff is very nice and helpful.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r134587396-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
   </si>
   <si>
@@ -1000,6 +1565,54 @@
   </si>
   <si>
     <t>The front desk guy was super-helpful. The free airport shuttle was timely. Typical Candlewood Studio Room was very clean. No problems. Great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r123448481-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>123448481</t>
+  </si>
+  <si>
+    <t>01/22/2012</t>
+  </si>
+  <si>
+    <t>Clean - Comfortable!!!</t>
+  </si>
+  <si>
+    <t>I had a fantastic stay. This was a week long business trip. My room had to have a fridge and microwave. This place had a whole kitchen! It was very clean, two thumbs up.  The staff were warm and welcoming. Very helpful, good customer service. It is located right off a major expressways so your view is of cars, trees, or other hotels, the pool/hot tub looked great, too bad it was cold outside. The laundry facilities were free to use.Now the negatives: no one to help with bags (help ur self there's a cart), no onsite restaurant (small convenience shop + weekly manager special), mid-week linen changes (wish it could be daily). The business center is 1 computer and printer station in the lobby (Free printing though).That's all I could point out, but it depends on what you are looking for.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>I had a fantastic stay. This was a week long business trip. My room had to have a fridge and microwave. This place had a whole kitchen! It was very clean, two thumbs up.  The staff were warm and welcoming. Very helpful, good customer service. It is located right off a major expressways so your view is of cars, trees, or other hotels, the pool/hot tub looked great, too bad it was cold outside. The laundry facilities were free to use.Now the negatives: no one to help with bags (help ur self there's a cart), no onsite restaurant (small convenience shop + weekly manager special), mid-week linen changes (wish it could be daily). The business center is 1 computer and printer station in the lobby (Free printing though).That's all I could point out, but it depends on what you are looking for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r120647086-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120647086</t>
+  </si>
+  <si>
+    <t>11/15/2011</t>
+  </si>
+  <si>
+    <t>This was a great place to stay.  I didn't want to go home.</t>
+  </si>
+  <si>
+    <t>This was the best hotel I have ever stayed at.  I have stayed at many different hotels in my career.  From the front desk to the maids, they were all great.  The place was spotless and they offered it all.  I actually felt safe and they stay was very comfortable.  They offer free washer and dryers, movie rentals, weight room, and a store.  They even offer dry cleaning.  They have a driver that will take you where you need to go and will pick you up.  The whole staff goes out of their way for you.The owners of this facility should be proud of it and the staff.This is a A+++++++ place to stay.   I will be staying here every time I come to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>MsSuitePeach, Guest Relations Manager at Candlewood Suites Houston IAH / Beltway 8, responded to this reviewResponded November 17, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2011</t>
+  </si>
+  <si>
+    <t>This was the best hotel I have ever stayed at.  I have stayed at many different hotels in my career.  From the front desk to the maids, they were all great.  The place was spotless and they offered it all.  I actually felt safe and they stay was very comfortable.  They offer free washer and dryers, movie rentals, weight room, and a store.  They even offer dry cleaning.  They have a driver that will take you where you need to go and will pick you up.  The whole staff goes out of their way for you.The owners of this facility should be proud of it and the staff.This is a A+++++++ place to stay.   I will be staying here every time I come to Houston.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1733514-r76491816-Candlewood_Suites_Houston_IAH_Beltway_8-Houston_Texas.html</t>
@@ -1573,7 +2186,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1583,10 +2196,16 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1636,7 +2255,7 @@
         <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1654,13 +2273,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -1676,7 +2295,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1685,45 +2304,39 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -1739,7 +2352,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1748,22 +2361,26 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
@@ -1773,14 +2390,10 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" t="s">
-        <v>74</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1796,7 +2409,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1805,43 +2418,39 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -1857,7 +2466,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1866,25 +2475,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1895,14 +2504,10 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>88</v>
-      </c>
-      <c r="X7" t="s">
-        <v>89</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -1918,52 +2523,54 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
         <v>91</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>92</v>
       </c>
-      <c r="J8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" t="s">
-        <v>95</v>
-      </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="O8" t="s">
-        <v>87</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>97</v>
-      </c>
-      <c r="X8" t="s">
-        <v>98</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -1979,7 +2586,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1988,22 +2595,22 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
         <v>53</v>
@@ -2011,9 +2618,7 @@
       <c r="P9" t="n">
         <v>5</v>
       </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
@@ -2026,7 +2631,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -2042,7 +2647,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2051,39 +2656,41 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="O10" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -2099,7 +2706,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2108,26 +2715,22 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>117</v>
-      </c>
-      <c r="O11" t="s">
-        <v>118</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
@@ -2137,10 +2740,14 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>110</v>
+      </c>
+      <c r="X11" t="s">
+        <v>111</v>
+      </c>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -2156,7 +2763,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2165,47 +2772,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>126</v>
-      </c>
-      <c r="X12" t="s">
-        <v>127</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -2221,7 +2824,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2230,49 +2833,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>3</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="X13" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -2288,7 +2885,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2297,43 +2894,49 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s">
-        <v>87</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="X14" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
@@ -2349,7 +2952,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2358,49 +2961,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>87</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>3</v>
-      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>3</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="X15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="Y15" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
@@ -2416,7 +3013,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2425,22 +3022,26 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
@@ -2451,13 +3052,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="X16" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
@@ -2473,7 +3074,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2482,43 +3083,45 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="O17" t="s">
-        <v>125</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>168</v>
-      </c>
-      <c r="X17" t="s">
-        <v>169</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
@@ -2534,7 +3137,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2543,49 +3146,39 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="O18" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>3</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>3</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>177</v>
-      </c>
-      <c r="X18" t="s">
-        <v>178</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
@@ -2601,7 +3194,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2610,49 +3203,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
         <v>3</v>
       </c>
-      <c r="N19" t="s">
-        <v>185</v>
-      </c>
-      <c r="O19" t="s">
-        <v>125</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>1</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="X19" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="Y19" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
@@ -2668,7 +3261,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2677,49 +3270,45 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="O20" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>195</v>
-      </c>
-      <c r="X20" t="s">
-        <v>196</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21">
@@ -2735,7 +3324,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2744,49 +3333,39 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="J21" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="K21" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="L21" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="O21" t="s">
-        <v>87</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>2</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>2</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>204</v>
-      </c>
-      <c r="X21" t="s">
-        <v>205</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
@@ -2802,7 +3381,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2811,30 +3390,30 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="J22" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="K22" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="O22" t="s">
-        <v>125</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q22" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
@@ -2845,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="X22" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="Y22" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23">
@@ -2867,7 +3446,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2876,45 +3455,49 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="J23" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="K23" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="L23" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="O23" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
       <c r="S23" t="n">
         <v>4</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>202</v>
+      </c>
+      <c r="X23" t="s">
+        <v>203</v>
+      </c>
       <c r="Y23" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24">
@@ -2930,7 +3513,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2939,49 +3522,39 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="J24" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="O24" t="s">
-        <v>125</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
-      <c r="R24" t="n">
-        <v>3</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>4</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25">
@@ -2997,7 +3570,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3006,39 +3579,49 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="J25" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O25" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>216</v>
+      </c>
+      <c r="X25" t="s">
+        <v>217</v>
+      </c>
       <c r="Y25" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26">
@@ -3054,7 +3637,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3063,49 +3646,43 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="J26" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="O26" t="s">
-        <v>125</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>224</v>
+      </c>
+      <c r="X26" t="s">
+        <v>225</v>
+      </c>
       <c r="Y26" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27">
@@ -3121,7 +3698,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3130,47 +3707,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="J27" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="K27" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="O27" t="s">
-        <v>125</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s"/>
       <c r="R27" t="n">
-        <v>2</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>232</v>
+      </c>
+      <c r="X27" t="s">
+        <v>233</v>
+      </c>
       <c r="Y27" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28">
@@ -3186,7 +3765,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3195,26 +3774,22 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="J28" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="K28" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>254</v>
-      </c>
-      <c r="O28" t="s">
-        <v>255</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
@@ -3225,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="X28" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="Y28" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29">
@@ -3247,7 +3822,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3256,49 +3831,43 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="J29" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="K29" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="L29" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="O29" t="s">
-        <v>125</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>248</v>
+      </c>
+      <c r="X29" t="s">
+        <v>249</v>
+      </c>
       <c r="Y29" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30">
@@ -3314,7 +3883,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3323,47 +3892,47 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="J30" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="K30" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="O30" t="s">
-        <v>87</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
+        <v>76</v>
+      </c>
+      <c r="P30" t="n">
         <v>3</v>
       </c>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>257</v>
+      </c>
+      <c r="X30" t="s">
+        <v>258</v>
+      </c>
       <c r="Y30" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31">
@@ -3379,7 +3948,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3388,53 +3957,43 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="J31" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="K31" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="L31" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="O31" t="s">
-        <v>87</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="X31" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="Y31" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32">
@@ -3450,7 +4009,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3459,53 +4018,49 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="J32" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="K32" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="L32" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O32" t="s">
-        <v>125</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="n">
         <v>3</v>
       </c>
+      <c r="R32" t="s"/>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="X32" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="Y32" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33">
@@ -3521,7 +4076,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3530,49 +4085,49 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="J33" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s">
-        <v>292</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
+      <c r="N33" t="s">
+        <v>282</v>
+      </c>
+      <c r="O33" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
       <c r="R33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S33" t="n">
         <v>3</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="X33" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="Y33" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34">
@@ -3588,7 +4143,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3597,38 +4152,34 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="J34" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="K34" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="O34" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
       </c>
-      <c r="Q34" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q34" t="s"/>
       <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
         <v>5</v>
@@ -3636,10 +4187,14 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>292</v>
+      </c>
+      <c r="X34" t="s">
+        <v>293</v>
+      </c>
       <c r="Y34" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35">
@@ -3655,7 +4210,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3664,49 +4219,47 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="J35" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K35" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="O35" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
         <v>3</v>
       </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>292</v>
+      </c>
+      <c r="X35" t="s">
+        <v>293</v>
+      </c>
       <c r="Y35" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36">
@@ -3722,7 +4275,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3731,37 +4284,33 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="J36" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K36" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L36" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="O36" t="s">
-        <v>87</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="n">
-        <v>3</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
@@ -3770,10 +4319,14 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>307</v>
+      </c>
+      <c r="X36" t="s">
+        <v>308</v>
+      </c>
       <c r="Y36" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37">
@@ -3789,62 +4342,58 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>310</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>311</v>
+      </c>
+      <c r="J37" t="s">
+        <v>312</v>
+      </c>
+      <c r="K37" t="s">
+        <v>313</v>
+      </c>
+      <c r="L37" t="s">
         <v>314</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
         <v>315</v>
       </c>
-      <c r="J37" t="s">
-        <v>316</v>
-      </c>
-      <c r="K37" t="s">
-        <v>317</v>
-      </c>
-      <c r="L37" t="s">
-        <v>318</v>
-      </c>
-      <c r="M37" t="n">
-        <v>5</v>
-      </c>
-      <c r="N37" t="s">
-        <v>313</v>
-      </c>
       <c r="O37" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="X37" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Y37" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38">
@@ -3860,58 +4409,56 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>319</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>320</v>
+      </c>
+      <c r="J38" t="s">
+        <v>321</v>
+      </c>
+      <c r="K38" t="s">
         <v>322</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="L38" t="s">
         <v>323</v>
       </c>
-      <c r="J38" t="s">
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
         <v>324</v>
       </c>
-      <c r="K38" t="s">
-        <v>325</v>
-      </c>
-      <c r="L38" t="s">
-        <v>326</v>
-      </c>
-      <c r="M38" t="n">
-        <v>4</v>
-      </c>
-      <c r="N38" t="s">
-        <v>327</v>
-      </c>
       <c r="O38" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>325</v>
+      </c>
+      <c r="X38" t="s">
+        <v>326</v>
+      </c>
       <c r="Y38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39">
@@ -3927,58 +4474,1934 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
         <v>329</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>330</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>331</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>332</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>324</v>
+      </c>
+      <c r="O39" t="s">
+        <v>186</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
         <v>333</v>
       </c>
-      <c r="M39" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="X39" t="s">
         <v>334</v>
       </c>
-      <c r="O39" t="s">
+      <c r="Y39" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>336</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>337</v>
+      </c>
+      <c r="J40" t="s">
+        <v>338</v>
+      </c>
+      <c r="K40" t="s">
+        <v>339</v>
+      </c>
+      <c r="L40" t="s">
+        <v>340</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>341</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>342</v>
+      </c>
+      <c r="J41" t="s">
+        <v>343</v>
+      </c>
+      <c r="K41" t="s">
+        <v>344</v>
+      </c>
+      <c r="L41" t="s">
+        <v>345</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>346</v>
+      </c>
+      <c r="O41" t="s">
         <v>53</v>
       </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
-      <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
-      <c r="Y39" t="s">
-        <v>333</v>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>347</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>348</v>
+      </c>
+      <c r="J42" t="s">
+        <v>349</v>
+      </c>
+      <c r="K42" t="s">
+        <v>350</v>
+      </c>
+      <c r="L42" t="s">
+        <v>351</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>352</v>
+      </c>
+      <c r="O42" t="s">
+        <v>69</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>354</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>355</v>
+      </c>
+      <c r="J43" t="s">
+        <v>356</v>
+      </c>
+      <c r="K43" t="s">
+        <v>357</v>
+      </c>
+      <c r="L43" t="s">
+        <v>358</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>352</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>360</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>361</v>
+      </c>
+      <c r="J44" t="s">
+        <v>362</v>
+      </c>
+      <c r="K44" t="s">
+        <v>363</v>
+      </c>
+      <c r="L44" t="s">
+        <v>364</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>365</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>366</v>
+      </c>
+      <c r="X44" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>369</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>370</v>
+      </c>
+      <c r="J45" t="s">
+        <v>371</v>
+      </c>
+      <c r="K45" t="s">
+        <v>372</v>
+      </c>
+      <c r="L45" t="s">
+        <v>373</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>374</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>375</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>376</v>
+      </c>
+      <c r="J46" t="s">
+        <v>377</v>
+      </c>
+      <c r="K46" t="s">
+        <v>378</v>
+      </c>
+      <c r="L46" t="s">
+        <v>379</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>380</v>
+      </c>
+      <c r="O46" t="s">
+        <v>69</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>382</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>383</v>
+      </c>
+      <c r="J47" t="s">
+        <v>384</v>
+      </c>
+      <c r="K47" t="s">
+        <v>385</v>
+      </c>
+      <c r="L47" t="s">
+        <v>386</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>387</v>
+      </c>
+      <c r="O47" t="s">
+        <v>69</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>389</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>390</v>
+      </c>
+      <c r="J48" t="s">
+        <v>391</v>
+      </c>
+      <c r="K48" t="s">
+        <v>392</v>
+      </c>
+      <c r="L48" t="s">
+        <v>393</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>394</v>
+      </c>
+      <c r="O48" t="s">
+        <v>76</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>395</v>
+      </c>
+      <c r="X48" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>398</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>399</v>
+      </c>
+      <c r="J49" t="s">
+        <v>400</v>
+      </c>
+      <c r="K49" t="s">
+        <v>401</v>
+      </c>
+      <c r="L49" t="s">
+        <v>402</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>394</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>403</v>
+      </c>
+      <c r="X49" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>406</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>407</v>
+      </c>
+      <c r="J50" t="s">
+        <v>408</v>
+      </c>
+      <c r="K50" t="s">
+        <v>409</v>
+      </c>
+      <c r="L50" t="s">
+        <v>410</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>411</v>
+      </c>
+      <c r="O50" t="s">
+        <v>69</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>412</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>413</v>
+      </c>
+      <c r="J51" t="s">
+        <v>414</v>
+      </c>
+      <c r="K51" t="s">
+        <v>415</v>
+      </c>
+      <c r="L51" t="s">
+        <v>416</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>417</v>
+      </c>
+      <c r="O51" t="s">
+        <v>69</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>418</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>419</v>
+      </c>
+      <c r="J52" t="s">
+        <v>420</v>
+      </c>
+      <c r="K52" t="s">
+        <v>421</v>
+      </c>
+      <c r="L52" t="s">
+        <v>422</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>380</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>424</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>425</v>
+      </c>
+      <c r="J53" t="s">
+        <v>426</v>
+      </c>
+      <c r="K53" t="s">
+        <v>427</v>
+      </c>
+      <c r="L53" t="s">
+        <v>428</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>429</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>430</v>
+      </c>
+      <c r="X53" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>433</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>434</v>
+      </c>
+      <c r="J54" t="s">
+        <v>435</v>
+      </c>
+      <c r="K54" t="s">
+        <v>436</v>
+      </c>
+      <c r="L54" t="s">
+        <v>437</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>438</v>
+      </c>
+      <c r="O54" t="s">
+        <v>69</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>439</v>
+      </c>
+      <c r="X54" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>442</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>443</v>
+      </c>
+      <c r="J55" t="s">
+        <v>444</v>
+      </c>
+      <c r="K55" t="s">
+        <v>445</v>
+      </c>
+      <c r="L55" t="s">
+        <v>446</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>447</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>448</v>
+      </c>
+      <c r="X55" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>451</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>452</v>
+      </c>
+      <c r="J56" t="s">
+        <v>453</v>
+      </c>
+      <c r="K56" t="s">
+        <v>454</v>
+      </c>
+      <c r="L56" t="s">
+        <v>455</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>447</v>
+      </c>
+      <c r="O56" t="s">
+        <v>69</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>448</v>
+      </c>
+      <c r="X56" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>457</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>458</v>
+      </c>
+      <c r="J57" t="s">
+        <v>459</v>
+      </c>
+      <c r="K57" t="s">
+        <v>460</v>
+      </c>
+      <c r="L57" t="s">
+        <v>461</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>462</v>
+      </c>
+      <c r="X57" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>465</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>466</v>
+      </c>
+      <c r="J58" t="s">
+        <v>467</v>
+      </c>
+      <c r="K58" t="s">
+        <v>468</v>
+      </c>
+      <c r="L58" t="s">
+        <v>469</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>447</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>470</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>471</v>
+      </c>
+      <c r="J59" t="s">
+        <v>472</v>
+      </c>
+      <c r="K59" t="s">
+        <v>473</v>
+      </c>
+      <c r="L59" t="s">
+        <v>474</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>475</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>476</v>
+      </c>
+      <c r="X59" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>479</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>480</v>
+      </c>
+      <c r="J60" t="s">
+        <v>481</v>
+      </c>
+      <c r="K60" t="s">
+        <v>482</v>
+      </c>
+      <c r="L60" t="s">
+        <v>483</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>484</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>485</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>486</v>
+      </c>
+      <c r="J61" t="s">
+        <v>487</v>
+      </c>
+      <c r="K61" t="s">
+        <v>488</v>
+      </c>
+      <c r="L61" t="s">
+        <v>489</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>490</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>491</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>492</v>
+      </c>
+      <c r="J62" t="s">
+        <v>493</v>
+      </c>
+      <c r="K62" t="s">
+        <v>494</v>
+      </c>
+      <c r="L62" t="s">
+        <v>495</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>496</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>497</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>498</v>
+      </c>
+      <c r="J63" t="s">
+        <v>499</v>
+      </c>
+      <c r="K63" t="s">
+        <v>500</v>
+      </c>
+      <c r="L63" t="s">
+        <v>501</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>496</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>502</v>
+      </c>
+      <c r="X63" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>505</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>506</v>
+      </c>
+      <c r="J64" t="s">
+        <v>507</v>
+      </c>
+      <c r="K64" t="s">
+        <v>508</v>
+      </c>
+      <c r="L64" t="s">
+        <v>509</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>510</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>512</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>513</v>
+      </c>
+      <c r="J65" t="s">
+        <v>514</v>
+      </c>
+      <c r="K65" t="s">
+        <v>515</v>
+      </c>
+      <c r="L65" t="s">
+        <v>516</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>517</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>518</v>
+      </c>
+      <c r="X65" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>521</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>522</v>
+      </c>
+      <c r="J66" t="s">
+        <v>523</v>
+      </c>
+      <c r="K66" t="s">
+        <v>524</v>
+      </c>
+      <c r="L66" t="s">
+        <v>525</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>526</v>
+      </c>
+      <c r="O66" t="s">
+        <v>69</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>58995</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>528</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>529</v>
+      </c>
+      <c r="J67" t="s">
+        <v>530</v>
+      </c>
+      <c r="K67" t="s">
+        <v>531</v>
+      </c>
+      <c r="L67" t="s">
+        <v>532</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>533</v>
+      </c>
+      <c r="O67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>
